--- a/aaa.xlsx
+++ b/aaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B679C9-7081-4DD8-8D9F-956B92ABEF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A235869-8765-400B-A1AA-561093E193CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,24 +1707,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">工作内容：  清理基槽坑 ，  调 、运 、铺砂浆 ，  运 、砌砖 。                                                                                                 计量单位：   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>10m³</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>定   额    编    号</t>
     </r>
   </si>
@@ -1988,25 +1970,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t>—</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">蒸压灰砂砖
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>240× 115×53</t>
     </r>
   </si>
   <si>
@@ -2034,32 +1997,6 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">干混砌筑砂浆 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">DM
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>M 10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t>m³</t>
@@ -29499,10 +29436,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>G</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>下面黄色背景不动</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -29573,6 +29506,69 @@
       </rPr>
       <t>”计算。</t>
     </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">工作内容：  清理基槽坑 ，  调 、运 、铺砂浆 ，  运 、砌砖 。                                                                                                 计量单位：   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10m³</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">干混砌筑砂浆 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>DM
+M 10</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">蒸压灰砂砖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>240× 115×53</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -29585,7 +29581,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -29776,6 +29772,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -29930,7 +29932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -30143,6 +30145,12 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30560,8 +30568,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:J46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D41" activeCellId="1" sqref="H41:J46 D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="14"/>
@@ -31334,7 +31342,7 @@
     </row>
     <row r="27" spans="1:10" ht="54.75" customHeight="1">
       <c r="A27" s="37" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>0</v>
@@ -31402,8 +31410,8 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A30" s="41" t="s">
-        <v>29</v>
+      <c r="A30" s="71" t="s">
+        <v>1161</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -31423,13 +31431,13 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="45"/>
       <c r="E31" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>0</v>
@@ -31438,7 +31446,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I31" s="46" t="s">
         <v>0</v>
@@ -31447,13 +31455,13 @@
     </row>
     <row r="32" spans="1:10" ht="14.15" customHeight="1">
       <c r="A32" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>0</v>
@@ -31473,7 +31481,7 @@
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="46" t="s">
         <v>0</v>
@@ -31482,7 +31490,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" s="46" t="s">
         <v>0</v>
@@ -31491,7 +31499,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.15" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -31515,10 +31523,10 @@
     </row>
     <row r="35" spans="1:10" ht="14.15" customHeight="1">
       <c r="A35" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="47" t="s">
         <v>38</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>39</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -31542,7 +31550,7 @@
     <row r="36" spans="1:10" ht="14.15" customHeight="1">
       <c r="A36" s="31"/>
       <c r="B36" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -31566,7 +31574,7 @@
     <row r="37" spans="1:10" ht="14.15" customHeight="1">
       <c r="A37" s="31"/>
       <c r="B37" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -31590,7 +31598,7 @@
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
       <c r="A38" s="31"/>
       <c r="B38" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -31614,7 +31622,7 @@
     <row r="39" spans="1:10" ht="14.15" customHeight="1">
       <c r="A39" s="31"/>
       <c r="B39" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -31637,17 +31645,17 @@
     </row>
     <row r="40" spans="1:10" ht="17.75" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="47" t="s">
         <v>46</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>47</v>
       </c>
       <c r="F40" s="47" t="s">
         <v>0</v>
@@ -31663,13 +31671,13 @@
     </row>
     <row r="41" spans="1:10" ht="92.25" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
@@ -31693,19 +31701,19 @@
     </row>
     <row r="42" spans="1:10" ht="92.5" customHeight="1">
       <c r="A42" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D42" s="5">
         <v>412.39</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>0</v>
@@ -31723,11 +31731,11 @@
     </row>
     <row r="43" spans="1:10" ht="92.5" customHeight="1">
       <c r="A43" s="31"/>
-      <c r="B43" s="9" t="s">
-        <v>55</v>
+      <c r="B43" s="72" t="s">
+        <v>1163</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="11">
         <v>500.88</v>
@@ -31742,7 +31750,7 @@
         <v>5.2880000000000003</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I43" s="32" t="s">
         <v>0</v>
@@ -31751,11 +31759,11 @@
     </row>
     <row r="44" spans="1:10" ht="92.5" customHeight="1">
       <c r="A44" s="31"/>
-      <c r="B44" s="9" t="s">
-        <v>58</v>
+      <c r="B44" s="72" t="s">
+        <v>1162</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D44" s="11">
         <v>687.61</v>
@@ -31780,10 +31788,10 @@
     <row r="45" spans="1:10" ht="91.4" customHeight="1">
       <c r="A45" s="31"/>
       <c r="B45" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D45" s="5">
         <v>4.62</v>
@@ -31807,13 +31815,13 @@
     </row>
     <row r="46" spans="1:10" ht="92.15" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D46" s="5">
         <v>265.88</v>
@@ -31837,7 +31845,7 @@
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1">
       <c r="A47" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -31855,7 +31863,7 @@
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1">
       <c r="A48" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -31873,39 +31881,39 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G49" s="46" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I49" s="46" t="s">
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
       <c r="A50" s="47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29" t="s">
@@ -31923,7 +31931,7 @@
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="29" t="s">
@@ -31941,22 +31949,22 @@
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G52" s="47" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I52" s="47" t="s">
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
@@ -31965,27 +31973,27 @@
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F53" s="46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G53" s="46" t="s">
         <v>0</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I53" s="46" t="s">
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1">
       <c r="A54" s="47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -32011,10 +32019,10 @@
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
       <c r="A55" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
@@ -32040,7 +32048,7 @@
     <row r="56" spans="1:10" ht="14.15" customHeight="1">
       <c r="A56" s="31"/>
       <c r="B56" s="47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
@@ -32066,7 +32074,7 @@
     <row r="57" spans="1:10" ht="14.15" customHeight="1">
       <c r="A57" s="31"/>
       <c r="B57" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -32092,7 +32100,7 @@
     <row r="58" spans="1:10" ht="14.15" customHeight="1">
       <c r="A58" s="31"/>
       <c r="B58" s="47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -32118,7 +32126,7 @@
     <row r="59" spans="1:10" ht="14.15" customHeight="1">
       <c r="A59" s="31"/>
       <c r="B59" s="47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -32143,17 +32151,17 @@
     </row>
     <row r="60" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A60" s="47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="29" t="s">
@@ -32167,13 +32175,13 @@
     </row>
     <row r="61" spans="1:10" ht="91.4" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -32199,13 +32207,13 @@
     </row>
     <row r="62" spans="1:10" ht="91.65" customHeight="1">
       <c r="A62" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D62" s="5">
         <v>500.88</v>
@@ -32232,10 +32240,10 @@
     <row r="63" spans="1:10" ht="91.65" customHeight="1">
       <c r="A63" s="31"/>
       <c r="B63" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D63" s="11">
         <v>687.61</v>
@@ -32262,10 +32270,10 @@
     <row r="64" spans="1:10" ht="91.65" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D64" s="11">
         <v>4.62</v>
@@ -32292,13 +32300,13 @@
     <row r="65" spans="1:10" ht="90.5" customHeight="1">
       <c r="A65" s="31"/>
       <c r="B65" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E65" s="7">
         <v>7.7919999999999998</v>
@@ -32321,13 +32329,13 @@
     </row>
     <row r="66" spans="1:10" ht="91.25" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D66" s="5">
         <v>265.88</v>
@@ -32353,7 +32361,7 @@
     </row>
     <row r="67" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A67" s="51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -32367,33 +32375,33 @@
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1">
       <c r="A68" s="47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" customHeight="1">
       <c r="A69" s="47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
@@ -32407,11 +32415,11 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
@@ -32423,15 +32431,15 @@
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H71" s="29"/>
       <c r="I71" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J71" s="29"/>
     </row>
@@ -32441,21 +32449,21 @@
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J72" s="29"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1">
       <c r="A73" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -32475,10 +32483,10 @@
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1">
       <c r="A74" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -32498,7 +32506,7 @@
     <row r="75" spans="1:10" ht="14.15" customHeight="1">
       <c r="A75" s="31"/>
       <c r="B75" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
@@ -32518,7 +32526,7 @@
     <row r="76" spans="1:10" ht="14.15" customHeight="1">
       <c r="A76" s="31"/>
       <c r="B76" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
@@ -32538,7 +32546,7 @@
     <row r="77" spans="1:10" ht="14.15" customHeight="1">
       <c r="A77" s="31"/>
       <c r="B77" s="47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
@@ -32558,7 +32566,7 @@
     <row r="78" spans="1:10" ht="14.15" customHeight="1">
       <c r="A78" s="31"/>
       <c r="B78" s="47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
@@ -32577,17 +32585,17 @@
     </row>
     <row r="79" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A79" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E79" s="47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
@@ -32597,13 +32605,13 @@
     </row>
     <row r="80" spans="1:10" ht="80.900000000000006" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
@@ -32623,19 +32631,19 @@
     </row>
     <row r="81" spans="1:10" ht="81.150000000000006" customHeight="1">
       <c r="A81" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D81" s="5">
         <v>412.39</v>
       </c>
       <c r="E81" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="28">
@@ -32650,10 +32658,10 @@
     <row r="82" spans="1:10" ht="81.150000000000006" customHeight="1">
       <c r="A82" s="31"/>
       <c r="B82" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D82" s="11">
         <v>500.88</v>
@@ -32663,21 +32671,21 @@
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H82" s="33"/>
       <c r="I82" s="52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J82" s="33"/>
     </row>
     <row r="83" spans="1:10" ht="81.150000000000006" customHeight="1">
       <c r="A83" s="31"/>
       <c r="B83" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D83" s="11">
         <v>687.61</v>
@@ -32698,10 +32706,10 @@
     <row r="84" spans="1:10" ht="80.400000000000006" customHeight="1">
       <c r="A84" s="31"/>
       <c r="B84" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D84" s="11">
         <v>4.62</v>
@@ -32722,13 +32730,13 @@
     <row r="85" spans="1:10" ht="80" customHeight="1">
       <c r="A85" s="31"/>
       <c r="B85" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E85" s="28">
         <v>8.6349999999999998</v>
@@ -32745,13 +32753,13 @@
     </row>
     <row r="86" spans="1:10" ht="80.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D86" s="5">
         <v>265.88</v>
@@ -32771,35 +32779,35 @@
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1">
       <c r="A87" s="47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
       <c r="E87" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F87" s="46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G87" s="29"/>
       <c r="H87" s="46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1">
       <c r="A88" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
@@ -32813,7 +32821,7 @@
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -32827,23 +32835,23 @@
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="47" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.25" customHeight="1">
       <c r="A91" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -32865,10 +32873,10 @@
     </row>
     <row r="92" spans="1:10" ht="14.25" customHeight="1">
       <c r="A92" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
@@ -32890,7 +32898,7 @@
     <row r="93" spans="1:10" ht="14.15" customHeight="1">
       <c r="A93" s="31"/>
       <c r="B93" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
@@ -32912,7 +32920,7 @@
     <row r="94" spans="1:10" ht="14.15" customHeight="1">
       <c r="A94" s="31"/>
       <c r="B94" s="47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
@@ -32934,7 +32942,7 @@
     <row r="95" spans="1:10" ht="14.15" customHeight="1">
       <c r="A95" s="31"/>
       <c r="B95" s="47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
@@ -32956,7 +32964,7 @@
     <row r="96" spans="1:10" ht="14.15" customHeight="1">
       <c r="A96" s="31"/>
       <c r="B96" s="47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
@@ -32977,17 +32985,17 @@
     </row>
     <row r="97" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A97" s="47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -32997,13 +33005,13 @@
     </row>
     <row r="98" spans="1:10" ht="96.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -33025,13 +33033,13 @@
     </row>
     <row r="99" spans="1:10" ht="96.9" customHeight="1">
       <c r="A99" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D99" s="5">
         <v>500.88</v>
@@ -33054,10 +33062,10 @@
     <row r="100" spans="1:10" ht="96.9" customHeight="1">
       <c r="A100" s="31"/>
       <c r="B100" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D100" s="11">
         <v>687.61</v>
@@ -33080,10 +33088,10 @@
     <row r="101" spans="1:10" ht="96.9" customHeight="1">
       <c r="A101" s="31"/>
       <c r="B101" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D101" s="11">
         <v>4.62</v>
@@ -33106,13 +33114,13 @@
     <row r="102" spans="1:10" ht="95.75" customHeight="1">
       <c r="A102" s="31"/>
       <c r="B102" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E102" s="7">
         <v>6.2590000000000003</v>
@@ -33131,13 +33139,13 @@
     </row>
     <row r="103" spans="1:10" ht="96.5" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D103" s="5">
         <v>265.88</v>
@@ -33159,7 +33167,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A104" s="51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
@@ -33173,13 +33181,13 @@
     </row>
     <row r="105" spans="1:10" ht="14.15" customHeight="1">
       <c r="A105" s="47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
       <c r="E105" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -33189,13 +33197,13 @@
     </row>
     <row r="106" spans="1:10" ht="14.15" customHeight="1">
       <c r="A106" s="47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
       <c r="E106" s="47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
@@ -33209,7 +33217,7 @@
       <c r="C107" s="29"/>
       <c r="D107" s="29"/>
       <c r="E107" s="46" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -33219,7 +33227,7 @@
     </row>
     <row r="108" spans="1:10" ht="14.15" customHeight="1">
       <c r="A108" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -33235,10 +33243,10 @@
     </row>
     <row r="109" spans="1:10" ht="14" customHeight="1">
       <c r="A109" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
@@ -33254,7 +33262,7 @@
     <row r="110" spans="1:10" ht="14" customHeight="1">
       <c r="A110" s="31"/>
       <c r="B110" s="47" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
@@ -33270,7 +33278,7 @@
     <row r="111" spans="1:10" ht="14" customHeight="1">
       <c r="A111" s="31"/>
       <c r="B111" s="47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C111" s="29"/>
       <c r="D111" s="29"/>
@@ -33286,7 +33294,7 @@
     <row r="112" spans="1:10" ht="14" customHeight="1">
       <c r="A112" s="31"/>
       <c r="B112" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C112" s="29"/>
       <c r="D112" s="29"/>
@@ -33302,7 +33310,7 @@
     <row r="113" spans="1:10" ht="14.4" customHeight="1">
       <c r="A113" s="31"/>
       <c r="B113" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C113" s="29"/>
       <c r="D113" s="29"/>
@@ -33317,17 +33325,17 @@
     </row>
     <row r="114" spans="1:10" ht="17.75" customHeight="1">
       <c r="A114" s="47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B114" s="29"/>
       <c r="C114" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E114" s="47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
@@ -33337,13 +33345,13 @@
     </row>
     <row r="115" spans="1:10" ht="99" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D115" s="5">
         <v>1</v>
@@ -33359,13 +33367,13 @@
     </row>
     <row r="116" spans="1:10" ht="99.25" customHeight="1">
       <c r="A116" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D116" s="5">
         <v>500.88</v>
@@ -33382,10 +33390,10 @@
     <row r="117" spans="1:10" ht="99.25" customHeight="1">
       <c r="A117" s="31"/>
       <c r="B117" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D117" s="11">
         <v>687.61</v>
@@ -33402,10 +33410,10 @@
     <row r="118" spans="1:10" ht="99.25" customHeight="1">
       <c r="A118" s="31"/>
       <c r="B118" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D118" s="11">
         <v>4.62</v>
@@ -33422,13 +33430,13 @@
     <row r="119" spans="1:10" ht="98.9" customHeight="1">
       <c r="A119" s="31"/>
       <c r="B119" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E119" s="28">
         <v>5.6760000000000002</v>
@@ -33441,13 +33449,13 @@
     </row>
     <row r="120" spans="1:10" ht="98.9" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D120" s="5">
         <v>265.88</v>
@@ -33463,7 +33471,7 @@
     </row>
     <row r="121" spans="1:10" ht="18.75" customHeight="1">
       <c r="A121" s="50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
@@ -33477,7 +33485,7 @@
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1">
       <c r="A122" s="41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B122" s="42"/>
       <c r="C122" s="42"/>
@@ -33491,41 +33499,41 @@
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1">
       <c r="A123" s="47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
       <c r="D123" s="29"/>
       <c r="E123" s="46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F123" s="29"/>
       <c r="G123" s="46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H123" s="29"/>
       <c r="I123" s="46" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J123" s="29"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1">
       <c r="A124" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
       <c r="D124" s="29"/>
       <c r="E124" s="47" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F124" s="29"/>
       <c r="G124" s="47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H124" s="29"/>
       <c r="I124" s="47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J124" s="29"/>
     </row>
@@ -33535,19 +33543,19 @@
       <c r="C125" s="29"/>
       <c r="D125" s="29"/>
       <c r="E125" s="46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" s="29"/>
       <c r="G125" s="29"/>
       <c r="H125" s="29"/>
       <c r="I125" s="46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1">
       <c r="A126" s="47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -33567,10 +33575,10 @@
     </row>
     <row r="127" spans="1:10" ht="14.15" customHeight="1">
       <c r="A127" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C127" s="29"/>
       <c r="D127" s="29"/>
@@ -33590,7 +33598,7 @@
     <row r="128" spans="1:10" ht="14.15" customHeight="1">
       <c r="A128" s="31"/>
       <c r="B128" s="47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C128" s="29"/>
       <c r="D128" s="29"/>
@@ -33610,7 +33618,7 @@
     <row r="129" spans="1:10" ht="14.15" customHeight="1">
       <c r="A129" s="31"/>
       <c r="B129" s="47" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C129" s="29"/>
       <c r="D129" s="29"/>
@@ -33630,7 +33638,7 @@
     <row r="130" spans="1:10" ht="14.15" customHeight="1">
       <c r="A130" s="31"/>
       <c r="B130" s="47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C130" s="29"/>
       <c r="D130" s="29"/>
@@ -33650,7 +33658,7 @@
     <row r="131" spans="1:10" ht="14.15" customHeight="1">
       <c r="A131" s="31"/>
       <c r="B131" s="47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C131" s="29"/>
       <c r="D131" s="29"/>
@@ -33669,17 +33677,17 @@
     </row>
     <row r="132" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A132" s="47" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B132" s="29"/>
       <c r="C132" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E132" s="47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" s="29"/>
       <c r="G132" s="29"/>
@@ -33689,13 +33697,13 @@
     </row>
     <row r="133" spans="1:10" ht="96" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D133" s="5">
         <v>1</v>
@@ -33715,23 +33723,23 @@
     </row>
     <row r="134" spans="1:10" ht="96.25" customHeight="1">
       <c r="A134" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D134" s="5">
         <v>412.39</v>
       </c>
       <c r="E134" s="53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F134" s="29"/>
       <c r="G134" s="53" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H134" s="29"/>
       <c r="I134" s="28">
@@ -33742,10 +33750,10 @@
     <row r="135" spans="1:10" ht="96.25" customHeight="1">
       <c r="A135" s="31"/>
       <c r="B135" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D135" s="11">
         <v>500.88</v>
@@ -33759,17 +33767,17 @@
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="54" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J135" s="33"/>
     </row>
     <row r="136" spans="1:10" ht="96.25" customHeight="1">
       <c r="A136" s="31"/>
       <c r="B136" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D136" s="11">
         <v>687.61</v>
@@ -33790,10 +33798,10 @@
     <row r="137" spans="1:10" ht="95.9" customHeight="1">
       <c r="A137" s="31"/>
       <c r="B137" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D137" s="5">
         <v>4.62</v>
@@ -33813,13 +33821,13 @@
     </row>
     <row r="138" spans="1:10" ht="96.65" customHeight="1">
       <c r="A138" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D138" s="5">
         <v>265.88</v>
@@ -33839,7 +33847,7 @@
     </row>
     <row r="139" spans="1:10" ht="18.75" customHeight="1">
       <c r="A139" s="50" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
@@ -33853,7 +33861,7 @@
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1">
       <c r="A140" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B140" s="42"/>
       <c r="C140" s="42"/>
@@ -33867,31 +33875,31 @@
     </row>
     <row r="141" spans="1:10" ht="14.15" customHeight="1">
       <c r="A141" s="47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
       <c r="D141" s="29"/>
       <c r="E141" s="46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="29"/>
       <c r="H141" s="46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I141" s="29"/>
       <c r="J141" s="29"/>
     </row>
     <row r="142" spans="1:10" ht="14.15" customHeight="1">
       <c r="A142" s="47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
       <c r="D142" s="29"/>
       <c r="E142" s="47" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F142" s="29"/>
       <c r="G142" s="29"/>
@@ -33905,19 +33913,19 @@
       <c r="C143" s="29"/>
       <c r="D143" s="29"/>
       <c r="E143" s="46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
       <c r="H143" s="46" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I143" s="29"/>
       <c r="J143" s="29"/>
     </row>
     <row r="144" spans="1:10" ht="14.15" customHeight="1">
       <c r="A144" s="47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -33935,10 +33943,10 @@
     </row>
     <row r="145" spans="1:10" ht="14.15" customHeight="1">
       <c r="A145" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C145" s="29"/>
       <c r="D145" s="29"/>
@@ -33956,7 +33964,7 @@
     <row r="146" spans="1:10" ht="14.15" customHeight="1">
       <c r="A146" s="31"/>
       <c r="B146" s="47" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C146" s="29"/>
       <c r="D146" s="29"/>
@@ -33974,7 +33982,7 @@
     <row r="147" spans="1:10" ht="14.15" customHeight="1">
       <c r="A147" s="31"/>
       <c r="B147" s="47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C147" s="29"/>
       <c r="D147" s="29"/>
@@ -33992,7 +34000,7 @@
     <row r="148" spans="1:10" ht="14" customHeight="1">
       <c r="A148" s="31"/>
       <c r="B148" s="47" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C148" s="29"/>
       <c r="D148" s="29"/>
@@ -34010,7 +34018,7 @@
     <row r="149" spans="1:10" ht="14.25" customHeight="1">
       <c r="A149" s="31"/>
       <c r="B149" s="47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C149" s="29"/>
       <c r="D149" s="29"/>
@@ -34027,17 +34035,17 @@
     </row>
     <row r="150" spans="1:10" ht="17.75" customHeight="1">
       <c r="A150" s="47" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E150" s="47" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" s="29"/>
       <c r="G150" s="29"/>
@@ -34047,13 +34055,13 @@
     </row>
     <row r="151" spans="1:10" ht="96" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D151" s="5">
         <v>1</v>
@@ -34071,13 +34079,13 @@
     </row>
     <row r="152" spans="1:10" ht="96.25" customHeight="1">
       <c r="A152" s="30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D152" s="5">
         <v>500.88</v>
@@ -34088,7 +34096,7 @@
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
       <c r="H152" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I152" s="29"/>
       <c r="J152" s="29"/>
@@ -34096,16 +34104,16 @@
     <row r="153" spans="1:10" ht="96.25" customHeight="1">
       <c r="A153" s="31"/>
       <c r="B153" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D153" s="11">
         <v>412.39</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -34118,10 +34126,10 @@
     <row r="154" spans="1:10" ht="96.25" customHeight="1">
       <c r="A154" s="31"/>
       <c r="B154" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D154" s="11">
         <v>687.61</v>
@@ -34140,10 +34148,10 @@
     <row r="155" spans="1:10" ht="95.9" customHeight="1">
       <c r="A155" s="31"/>
       <c r="B155" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D155" s="5">
         <v>4.62</v>
@@ -34161,13 +34169,13 @@
     </row>
     <row r="156" spans="1:10" ht="96.65" customHeight="1">
       <c r="A156" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D156" s="5">
         <v>265.88</v>
@@ -34185,7 +34193,7 @@
     </row>
     <row r="157" spans="1:10" ht="18.75" customHeight="1">
       <c r="A157" s="50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B157" s="39"/>
       <c r="C157" s="39"/>
@@ -34199,7 +34207,7 @@
     </row>
     <row r="158" spans="1:10" ht="17.25" customHeight="1">
       <c r="A158" s="41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B158" s="42"/>
       <c r="C158" s="42"/>
@@ -34213,13 +34221,13 @@
     </row>
     <row r="159" spans="1:10" ht="14.15" customHeight="1">
       <c r="A159" s="47" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="29"/>
@@ -34229,13 +34237,13 @@
     </row>
     <row r="160" spans="1:10" ht="14.15" customHeight="1">
       <c r="A160" s="47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="46" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
@@ -34249,7 +34257,7 @@
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="46" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
@@ -34259,7 +34267,7 @@
     </row>
     <row r="162" spans="1:10" ht="14" customHeight="1">
       <c r="A162" s="47" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B162" s="29"/>
       <c r="C162" s="29"/>
@@ -34275,10 +34283,10 @@
     </row>
     <row r="163" spans="1:10" ht="14" customHeight="1">
       <c r="A163" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
@@ -34294,7 +34302,7 @@
     <row r="164" spans="1:10" ht="14" customHeight="1">
       <c r="A164" s="31"/>
       <c r="B164" s="47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
@@ -34310,7 +34318,7 @@
     <row r="165" spans="1:10" ht="14" customHeight="1">
       <c r="A165" s="31"/>
       <c r="B165" s="47" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
@@ -34326,7 +34334,7 @@
     <row r="166" spans="1:10" ht="14" customHeight="1">
       <c r="A166" s="31"/>
       <c r="B166" s="47" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
@@ -34342,7 +34350,7 @@
     <row r="167" spans="1:10" ht="14.25" customHeight="1">
       <c r="A167" s="31"/>
       <c r="B167" s="47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
@@ -34357,17 +34365,17 @@
     </row>
     <row r="168" spans="1:10" ht="17.75" customHeight="1">
       <c r="A168" s="47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B168" s="29"/>
       <c r="C168" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E168" s="47" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F168" s="29"/>
       <c r="G168" s="29"/>
@@ -34377,13 +34385,13 @@
     </row>
     <row r="169" spans="1:10" ht="115.65" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D169" s="5">
         <v>1</v>
@@ -34399,13 +34407,13 @@
     </row>
     <row r="170" spans="1:10" ht="115.9" customHeight="1">
       <c r="A170" s="30" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D170" s="5">
         <v>500.88</v>
@@ -34422,10 +34430,10 @@
     <row r="171" spans="1:10" ht="115.9" customHeight="1">
       <c r="A171" s="31"/>
       <c r="B171" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D171" s="11">
         <v>687.61</v>
@@ -34442,13 +34450,13 @@
     <row r="172" spans="1:10" ht="114.75" customHeight="1">
       <c r="A172" s="31"/>
       <c r="B172" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E172" s="28">
         <v>35.228999999999999</v>
@@ -34461,13 +34469,13 @@
     </row>
     <row r="173" spans="1:10" ht="115.5" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D173" s="5">
         <v>265.88</v>
@@ -34483,7 +34491,7 @@
     </row>
     <row r="174" spans="1:10" ht="18.75" customHeight="1">
       <c r="A174" s="50" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B174" s="39"/>
       <c r="C174" s="39"/>
@@ -34497,7 +34505,7 @@
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1">
       <c r="A175" s="56" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B175" s="57"/>
       <c r="C175" s="57"/>
@@ -34511,13 +34519,13 @@
     </row>
     <row r="176" spans="1:10" ht="14.15" customHeight="1">
       <c r="A176" s="47" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
       <c r="D176" s="29"/>
       <c r="E176" s="46" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F176" s="29"/>
       <c r="G176" s="29"/>
@@ -34527,13 +34535,13 @@
     </row>
     <row r="177" spans="1:10" ht="14.15" customHeight="1">
       <c r="A177" s="47" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B177" s="29"/>
       <c r="C177" s="29"/>
       <c r="D177" s="29"/>
       <c r="E177" s="47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F177" s="29"/>
       <c r="G177" s="29"/>
@@ -34547,7 +34555,7 @@
       <c r="C178" s="29"/>
       <c r="D178" s="29"/>
       <c r="E178" s="46" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" s="29"/>
       <c r="G178" s="29"/>
@@ -34557,7 +34565,7 @@
     </row>
     <row r="179" spans="1:10" ht="14" customHeight="1">
       <c r="A179" s="47" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B179" s="29"/>
       <c r="C179" s="29"/>
@@ -34573,10 +34581,10 @@
     </row>
     <row r="180" spans="1:10" ht="14" customHeight="1">
       <c r="A180" s="30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B180" s="47" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C180" s="29"/>
       <c r="D180" s="29"/>
@@ -34592,7 +34600,7 @@
     <row r="181" spans="1:10" ht="14" customHeight="1">
       <c r="A181" s="31"/>
       <c r="B181" s="47" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C181" s="29"/>
       <c r="D181" s="29"/>
@@ -34608,7 +34616,7 @@
     <row r="182" spans="1:10" ht="14" customHeight="1">
       <c r="A182" s="31"/>
       <c r="B182" s="47" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C182" s="29"/>
       <c r="D182" s="29"/>
@@ -34624,7 +34632,7 @@
     <row r="183" spans="1:10" ht="14" customHeight="1">
       <c r="A183" s="31"/>
       <c r="B183" s="47" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C183" s="29"/>
       <c r="D183" s="29"/>
@@ -34640,7 +34648,7 @@
     <row r="184" spans="1:10" ht="14.25" customHeight="1">
       <c r="A184" s="31"/>
       <c r="B184" s="47" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C184" s="29"/>
       <c r="D184" s="29"/>
@@ -34655,17 +34663,17 @@
     </row>
     <row r="185" spans="1:10" ht="17.75" customHeight="1">
       <c r="A185" s="47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B185" s="29"/>
       <c r="C185" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E185" s="47" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -34675,13 +34683,13 @@
     </row>
     <row r="186" spans="1:10" ht="115.65" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D186" s="5">
         <v>1</v>
@@ -34697,13 +34705,13 @@
     </row>
     <row r="187" spans="1:10" ht="115.9" customHeight="1">
       <c r="A187" s="30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D187" s="5">
         <v>500.88</v>
@@ -34720,10 +34728,10 @@
     <row r="188" spans="1:10" ht="115.9" customHeight="1">
       <c r="A188" s="31"/>
       <c r="B188" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D188" s="11">
         <v>687.61</v>
@@ -34740,10 +34748,10 @@
     <row r="189" spans="1:10" ht="114.75" customHeight="1">
       <c r="A189" s="31"/>
       <c r="B189" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D189" s="5">
         <v>4.62</v>
@@ -34759,13 +34767,13 @@
     </row>
     <row r="190" spans="1:10" ht="115.5" customHeight="1">
       <c r="A190" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D190" s="5">
         <v>265.88</v>
@@ -34781,7 +34789,7 @@
     </row>
     <row r="191" spans="1:10" ht="18.75" customHeight="1">
       <c r="A191" s="50" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B191" s="39"/>
       <c r="C191" s="39"/>
@@ -34795,7 +34803,7 @@
     </row>
     <row r="192" spans="1:10" ht="17.25" customHeight="1">
       <c r="A192" s="41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B192" s="42"/>
       <c r="C192" s="42"/>
@@ -34809,31 +34817,31 @@
     </row>
     <row r="193" spans="1:10" ht="14.15" customHeight="1">
       <c r="A193" s="47" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
       <c r="D193" s="29"/>
       <c r="E193" s="46" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F193" s="29"/>
       <c r="G193" s="29"/>
       <c r="H193" s="46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I193" s="29"/>
       <c r="J193" s="29"/>
     </row>
     <row r="194" spans="1:10" ht="14.15" customHeight="1">
       <c r="A194" s="47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
       <c r="D194" s="29"/>
       <c r="E194" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F194" s="29"/>
       <c r="G194" s="29"/>
@@ -34847,7 +34855,7 @@
       <c r="C195" s="29"/>
       <c r="D195" s="29"/>
       <c r="E195" s="46" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F195" s="29"/>
       <c r="G195" s="29"/>
@@ -34861,19 +34869,19 @@
       <c r="C196" s="29"/>
       <c r="D196" s="29"/>
       <c r="E196" s="58" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F196" s="59"/>
       <c r="G196" s="59"/>
       <c r="H196" s="58" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I196" s="59"/>
       <c r="J196" s="59"/>
     </row>
     <row r="197" spans="1:10" ht="14.15" customHeight="1">
       <c r="A197" s="47" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
@@ -34891,10 +34899,10 @@
     </row>
     <row r="198" spans="1:10" ht="14.15" customHeight="1">
       <c r="A198" s="30" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B198" s="47" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C198" s="29"/>
       <c r="D198" s="29"/>
@@ -34912,7 +34920,7 @@
     <row r="199" spans="1:10" ht="14.15" customHeight="1">
       <c r="A199" s="31"/>
       <c r="B199" s="47" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C199" s="29"/>
       <c r="D199" s="29"/>
@@ -34930,7 +34938,7 @@
     <row r="200" spans="1:10" ht="14" customHeight="1">
       <c r="A200" s="31"/>
       <c r="B200" s="47" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C200" s="29"/>
       <c r="D200" s="29"/>
@@ -34948,7 +34956,7 @@
     <row r="201" spans="1:10" ht="14" customHeight="1">
       <c r="A201" s="31"/>
       <c r="B201" s="47" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="29"/>
@@ -34966,7 +34974,7 @@
     <row r="202" spans="1:10" ht="14.4" customHeight="1">
       <c r="A202" s="31"/>
       <c r="B202" s="47" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
@@ -34983,17 +34991,17 @@
     </row>
     <row r="203" spans="1:10" ht="17.75" customHeight="1">
       <c r="A203" s="47" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B203" s="29"/>
       <c r="C203" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E203" s="47" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F203" s="29"/>
       <c r="G203" s="29"/>
@@ -35003,13 +35011,13 @@
     </row>
     <row r="204" spans="1:10" ht="112.5" customHeight="1">
       <c r="A204" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D204" s="5">
         <v>1</v>
@@ -35027,13 +35035,13 @@
     </row>
     <row r="205" spans="1:10" ht="112.75" customHeight="1">
       <c r="A205" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D205" s="5">
         <v>500.88</v>
@@ -35052,10 +35060,10 @@
     <row r="206" spans="1:10" ht="112.75" customHeight="1">
       <c r="A206" s="31"/>
       <c r="B206" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D206" s="11">
         <v>687.61</v>
@@ -35074,10 +35082,10 @@
     <row r="207" spans="1:10" ht="112.5" customHeight="1">
       <c r="A207" s="31"/>
       <c r="B207" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D207" s="5">
         <v>4.62</v>
@@ -35095,13 +35103,13 @@
     </row>
     <row r="208" spans="1:10" ht="112.5" customHeight="1">
       <c r="A208" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D208" s="5">
         <v>265.88</v>
@@ -35119,7 +35127,7 @@
     </row>
     <row r="209" spans="1:10" ht="23.65" customHeight="1">
       <c r="A209" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B209" s="39"/>
       <c r="C209" s="39"/>
@@ -35133,7 +35141,7 @@
     </row>
     <row r="210" spans="1:10" ht="17.25" customHeight="1">
       <c r="A210" s="40" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B210" s="39"/>
       <c r="C210" s="39"/>
@@ -35147,7 +35155,7 @@
     </row>
     <row r="211" spans="1:10" ht="17.25" customHeight="1">
       <c r="A211" s="41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B211" s="42"/>
       <c r="C211" s="42"/>
@@ -35161,13 +35169,13 @@
     </row>
     <row r="212" spans="1:10" ht="14.15" customHeight="1">
       <c r="A212" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
       <c r="D212" s="29"/>
       <c r="E212" s="46" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F212" s="29"/>
       <c r="G212" s="29"/>
@@ -35177,13 +35185,13 @@
     </row>
     <row r="213" spans="1:10" ht="14" customHeight="1">
       <c r="A213" s="47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
       <c r="D213" s="29"/>
       <c r="E213" s="47" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F213" s="29"/>
       <c r="G213" s="29"/>
@@ -35193,7 +35201,7 @@
     </row>
     <row r="214" spans="1:10" ht="14" customHeight="1">
       <c r="A214" s="47" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
@@ -35209,10 +35217,10 @@
     </row>
     <row r="215" spans="1:10" ht="14" customHeight="1">
       <c r="A215" s="30" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B215" s="47" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C215" s="29"/>
       <c r="D215" s="29"/>
@@ -35228,7 +35236,7 @@
     <row r="216" spans="1:10" ht="14" customHeight="1">
       <c r="A216" s="31"/>
       <c r="B216" s="47" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C216" s="29"/>
       <c r="D216" s="29"/>
@@ -35244,7 +35252,7 @@
     <row r="217" spans="1:10" ht="14" customHeight="1">
       <c r="A217" s="31"/>
       <c r="B217" s="47" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C217" s="29"/>
       <c r="D217" s="29"/>
@@ -35260,7 +35268,7 @@
     <row r="218" spans="1:10" ht="14" customHeight="1">
       <c r="A218" s="31"/>
       <c r="B218" s="47" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C218" s="29"/>
       <c r="D218" s="29"/>
@@ -35276,7 +35284,7 @@
     <row r="219" spans="1:10" ht="14.4" customHeight="1">
       <c r="A219" s="31"/>
       <c r="B219" s="47" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C219" s="29"/>
       <c r="D219" s="29"/>
@@ -35291,17 +35299,17 @@
     </row>
     <row r="220" spans="1:10" ht="17.75" customHeight="1">
       <c r="A220" s="47" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B220" s="29"/>
       <c r="C220" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E220" s="47" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" s="29"/>
       <c r="G220" s="29"/>
@@ -35311,13 +35319,13 @@
     </row>
     <row r="221" spans="1:10" ht="113.25" customHeight="1">
       <c r="A221" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
@@ -35333,13 +35341,13 @@
     </row>
     <row r="222" spans="1:10" ht="113.65" customHeight="1">
       <c r="A222" s="30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D222" s="5">
         <v>312.39</v>
@@ -35356,10 +35364,10 @@
     <row r="223" spans="1:10" ht="113.65" customHeight="1">
       <c r="A223" s="31"/>
       <c r="B223" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D223" s="11">
         <v>687.61</v>
@@ -35376,10 +35384,10 @@
     <row r="224" spans="1:10" ht="113.25" customHeight="1">
       <c r="A224" s="31"/>
       <c r="B224" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D224" s="5">
         <v>4.62</v>
@@ -35395,13 +35403,13 @@
     </row>
     <row r="225" spans="1:10" ht="114" customHeight="1">
       <c r="A225" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D225" s="5">
         <v>265.88</v>
@@ -35417,7 +35425,7 @@
     </row>
     <row r="226" spans="1:10" ht="18.75" customHeight="1">
       <c r="A226" s="50" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B226" s="39"/>
       <c r="C226" s="39"/>
@@ -35431,7 +35439,7 @@
     </row>
     <row r="227" spans="1:10" ht="30" customHeight="1">
       <c r="A227" s="60" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B227" s="61"/>
       <c r="C227" s="61"/>
@@ -35445,35 +35453,35 @@
     </row>
     <row r="228" spans="1:10" ht="14.25" customHeight="1">
       <c r="A228" s="47" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
       <c r="D228" s="29"/>
       <c r="E228" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F228" s="46" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G228" s="29"/>
       <c r="H228" s="46" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I228" s="29"/>
       <c r="J228" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="14.25" customHeight="1">
       <c r="A229" s="47" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B229" s="29"/>
       <c r="C229" s="29"/>
       <c r="D229" s="29"/>
       <c r="E229" s="47" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F229" s="29"/>
       <c r="G229" s="29"/>
@@ -35487,12 +35495,12 @@
       <c r="C230" s="29"/>
       <c r="D230" s="29"/>
       <c r="E230" s="47" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F230" s="29"/>
       <c r="G230" s="29"/>
       <c r="H230" s="47" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I230" s="29"/>
       <c r="J230" s="29"/>
@@ -35503,23 +35511,23 @@
       <c r="C231" s="29"/>
       <c r="D231" s="29"/>
       <c r="E231" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F231" s="47" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G231" s="29"/>
       <c r="H231" s="47" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I231" s="29"/>
       <c r="J231" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="14.25" customHeight="1">
       <c r="A232" s="47" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
@@ -35541,10 +35549,10 @@
     </row>
     <row r="233" spans="1:10" ht="14.25" customHeight="1">
       <c r="A233" s="30" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B233" s="47" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C233" s="29"/>
       <c r="D233" s="29"/>
@@ -35566,7 +35574,7 @@
     <row r="234" spans="1:10" ht="14.25" customHeight="1">
       <c r="A234" s="31"/>
       <c r="B234" s="47" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C234" s="29"/>
       <c r="D234" s="29"/>
@@ -35588,7 +35596,7 @@
     <row r="235" spans="1:10" ht="14.25" customHeight="1">
       <c r="A235" s="31"/>
       <c r="B235" s="47" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C235" s="29"/>
       <c r="D235" s="29"/>
@@ -35610,7 +35618,7 @@
     <row r="236" spans="1:10" ht="14.25" customHeight="1">
       <c r="A236" s="31"/>
       <c r="B236" s="47" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C236" s="29"/>
       <c r="D236" s="29"/>
@@ -35632,7 +35640,7 @@
     <row r="237" spans="1:10" ht="14.25" customHeight="1">
       <c r="A237" s="31"/>
       <c r="B237" s="47" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
@@ -35653,17 +35661,17 @@
     </row>
     <row r="238" spans="1:10" ht="18" customHeight="1">
       <c r="A238" s="47" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B238" s="29"/>
       <c r="C238" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E238" s="47" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F238" s="29"/>
       <c r="G238" s="29"/>
@@ -35673,13 +35681,13 @@
     </row>
     <row r="239" spans="1:10" ht="64.400000000000006" customHeight="1">
       <c r="A239" s="17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D239" s="5">
         <v>1</v>
@@ -35701,13 +35709,13 @@
     </row>
     <row r="240" spans="1:10" ht="61.5" customHeight="1">
       <c r="A240" s="30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D240" s="5">
         <v>312.39</v>
@@ -35720,29 +35728,29 @@
       </c>
       <c r="G240" s="29"/>
       <c r="H240" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I240" s="29"/>
       <c r="J240" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="61.5" customHeight="1">
       <c r="A241" s="31"/>
       <c r="B241" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D241" s="11">
         <v>312.39</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F241" s="52" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G241" s="33"/>
       <c r="H241" s="34">
@@ -35756,10 +35764,10 @@
     <row r="242" spans="1:10" ht="60.75" customHeight="1">
       <c r="A242" s="31"/>
       <c r="B242" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D242" s="11">
         <v>687.61</v>
@@ -35782,23 +35790,23 @@
     <row r="243" spans="1:10" ht="60.75" customHeight="1">
       <c r="A243" s="31"/>
       <c r="B243" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D243" s="11">
         <v>703.98</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" s="34">
         <v>0.1</v>
       </c>
       <c r="G243" s="33"/>
       <c r="H243" s="52" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I243" s="33"/>
       <c r="J243" s="12">
@@ -35808,10 +35816,10 @@
     <row r="244" spans="1:10" ht="60.75" customHeight="1">
       <c r="A244" s="31"/>
       <c r="B244" s="15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D244" s="11">
         <v>4.62</v>
@@ -35834,23 +35842,23 @@
     <row r="245" spans="1:10" ht="60.75" customHeight="1">
       <c r="A245" s="31"/>
       <c r="B245" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D245" s="11">
         <v>1.27</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F245" s="34">
         <v>297.39999999999998</v>
       </c>
       <c r="G245" s="33"/>
       <c r="H245" s="52" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I245" s="33"/>
       <c r="J245" s="12">
@@ -35860,13 +35868,13 @@
     <row r="246" spans="1:10" ht="60.5" customHeight="1">
       <c r="A246" s="31"/>
       <c r="B246" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E246" s="7">
         <v>7.0839999999999996</v>
@@ -35885,13 +35893,13 @@
     </row>
     <row r="247" spans="1:10" ht="61.25" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D247" s="5">
         <v>265.88</v>
@@ -35913,7 +35921,7 @@
     </row>
     <row r="248" spans="1:10" ht="33" customHeight="1">
       <c r="A248" s="62" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B248" s="61"/>
       <c r="C248" s="61"/>
@@ -35927,31 +35935,31 @@
     </row>
     <row r="249" spans="1:10" ht="14.25" customHeight="1">
       <c r="A249" s="47" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B249" s="29"/>
       <c r="C249" s="29"/>
       <c r="D249" s="29"/>
       <c r="E249" s="46" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F249" s="29"/>
       <c r="G249" s="29"/>
       <c r="H249" s="46" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I249" s="29"/>
       <c r="J249" s="29"/>
     </row>
     <row r="250" spans="1:10" ht="14.25" customHeight="1">
       <c r="A250" s="47" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
       <c r="D250" s="29"/>
       <c r="E250" s="47" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F250" s="29"/>
       <c r="G250" s="29"/>
@@ -35965,7 +35973,7 @@
       <c r="C251" s="29"/>
       <c r="D251" s="29"/>
       <c r="E251" s="47" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F251" s="29"/>
       <c r="G251" s="29"/>
@@ -35979,19 +35987,19 @@
       <c r="C252" s="29"/>
       <c r="D252" s="29"/>
       <c r="E252" s="58" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F252" s="59"/>
       <c r="G252" s="59"/>
       <c r="H252" s="58" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I252" s="59"/>
       <c r="J252" s="59"/>
     </row>
     <row r="253" spans="1:10" ht="14.15" customHeight="1">
       <c r="A253" s="47" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
@@ -36009,10 +36017,10 @@
     </row>
     <row r="254" spans="1:10" ht="14.15" customHeight="1">
       <c r="A254" s="30" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B254" s="47" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C254" s="29"/>
       <c r="D254" s="29"/>
@@ -36030,7 +36038,7 @@
     <row r="255" spans="1:10" ht="14.15" customHeight="1">
       <c r="A255" s="31"/>
       <c r="B255" s="47" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C255" s="29"/>
       <c r="D255" s="29"/>
@@ -36048,7 +36056,7 @@
     <row r="256" spans="1:10" ht="14.15" customHeight="1">
       <c r="A256" s="31"/>
       <c r="B256" s="47" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C256" s="29"/>
       <c r="D256" s="29"/>
@@ -36066,7 +36074,7 @@
     <row r="257" spans="1:10" ht="14.15" customHeight="1">
       <c r="A257" s="31"/>
       <c r="B257" s="47" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C257" s="29"/>
       <c r="D257" s="29"/>
@@ -36084,7 +36092,7 @@
     <row r="258" spans="1:10" ht="14.25" customHeight="1">
       <c r="A258" s="31"/>
       <c r="B258" s="47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C258" s="29"/>
       <c r="D258" s="29"/>
@@ -36101,17 +36109,17 @@
     </row>
     <row r="259" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A259" s="47" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B259" s="29"/>
       <c r="C259" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E259" s="47" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F259" s="29"/>
       <c r="G259" s="29"/>
@@ -36121,13 +36129,13 @@
     </row>
     <row r="260" spans="1:10" ht="71.150000000000006" customHeight="1">
       <c r="A260" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D260" s="5">
         <v>1</v>
@@ -36145,13 +36153,13 @@
     </row>
     <row r="261" spans="1:10" ht="71.400000000000006" customHeight="1">
       <c r="A261" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D261" s="11">
         <v>312.39</v>
@@ -36170,10 +36178,10 @@
     <row r="262" spans="1:10" ht="71.400000000000006" customHeight="1">
       <c r="A262" s="31"/>
       <c r="B262" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D262" s="11">
         <v>687.61</v>
@@ -36192,16 +36200,16 @@
     <row r="263" spans="1:10" ht="70.650000000000006" customHeight="1">
       <c r="A263" s="31"/>
       <c r="B263" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D263" s="11">
         <v>703.98</v>
       </c>
       <c r="E263" s="52" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F263" s="33"/>
       <c r="G263" s="33"/>
@@ -36214,16 +36222,16 @@
     <row r="264" spans="1:10" ht="70.650000000000006" customHeight="1">
       <c r="A264" s="31"/>
       <c r="B264" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D264" s="11">
         <v>1.27</v>
       </c>
       <c r="E264" s="52" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="33"/>
@@ -36236,10 +36244,10 @@
     <row r="265" spans="1:10" ht="70.650000000000006" customHeight="1">
       <c r="A265" s="31"/>
       <c r="B265" s="15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D265" s="11">
         <v>4.62</v>
@@ -36258,13 +36266,13 @@
     <row r="266" spans="1:10" ht="70.25" customHeight="1">
       <c r="A266" s="31"/>
       <c r="B266" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D266" s="16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E266" s="28">
         <v>7.0839999999999996</v>
@@ -36279,13 +36287,13 @@
     </row>
     <row r="267" spans="1:10" ht="71" customHeight="1">
       <c r="A267" s="17" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D267" s="5">
         <v>265.88</v>
@@ -36303,7 +36311,7 @@
     </row>
     <row r="268" spans="1:10" ht="18.75" customHeight="1">
       <c r="A268" s="50" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B268" s="39"/>
       <c r="C268" s="39"/>
@@ -36317,7 +36325,7 @@
     </row>
     <row r="269" spans="1:10" ht="17.25" customHeight="1">
       <c r="A269" s="41" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B269" s="42"/>
       <c r="C269" s="42"/>
@@ -36331,33 +36339,33 @@
     </row>
     <row r="270" spans="1:10" ht="14.25" customHeight="1">
       <c r="A270" s="47" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
       <c r="D270" s="29"/>
       <c r="E270" s="46" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F270" s="29"/>
       <c r="G270" s="46" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H270" s="29"/>
       <c r="I270" s="46" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J270" s="29"/>
     </row>
     <row r="271" spans="1:10" ht="14.25" customHeight="1">
       <c r="A271" s="47" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
       <c r="D271" s="29"/>
       <c r="E271" s="47" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F271" s="29"/>
       <c r="G271" s="29"/>
@@ -36371,7 +36379,7 @@
       <c r="C272" s="29"/>
       <c r="D272" s="29"/>
       <c r="E272" s="46" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F272" s="29"/>
       <c r="G272" s="29"/>
@@ -36385,21 +36393,21 @@
       <c r="C273" s="29"/>
       <c r="D273" s="29"/>
       <c r="E273" s="46" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F273" s="29"/>
       <c r="G273" s="46" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H273" s="29"/>
       <c r="I273" s="46" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J273" s="29"/>
     </row>
     <row r="274" spans="1:10" ht="14.25" customHeight="1">
       <c r="A274" s="47" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B274" s="29"/>
       <c r="C274" s="29"/>
@@ -36419,10 +36427,10 @@
     </row>
     <row r="275" spans="1:10" ht="14.25" customHeight="1">
       <c r="A275" s="30" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B275" s="47" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C275" s="29"/>
       <c r="D275" s="29"/>
@@ -36442,7 +36450,7 @@
     <row r="276" spans="1:10" ht="14.25" customHeight="1">
       <c r="A276" s="31"/>
       <c r="B276" s="47" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C276" s="29"/>
       <c r="D276" s="29"/>
@@ -36462,27 +36470,27 @@
     <row r="277" spans="1:10" ht="14.25" customHeight="1">
       <c r="A277" s="31"/>
       <c r="B277" s="47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C277" s="29"/>
       <c r="D277" s="29"/>
       <c r="E277" s="63" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F277" s="29"/>
       <c r="G277" s="63" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H277" s="29"/>
       <c r="I277" s="63" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J277" s="29"/>
     </row>
     <row r="278" spans="1:10" ht="14.25" customHeight="1">
       <c r="A278" s="31"/>
       <c r="B278" s="47" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C278" s="29"/>
       <c r="D278" s="29"/>
@@ -36502,7 +36510,7 @@
     <row r="279" spans="1:10" ht="14.25" customHeight="1">
       <c r="A279" s="31"/>
       <c r="B279" s="47" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C279" s="29"/>
       <c r="D279" s="29"/>
@@ -36521,17 +36529,17 @@
     </row>
     <row r="280" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A280" s="47" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B280" s="29"/>
       <c r="C280" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E280" s="47" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F280" s="29"/>
       <c r="G280" s="29"/>
@@ -36541,13 +36549,13 @@
     </row>
     <row r="281" spans="1:10" ht="51.65" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D281" s="5">
         <v>1</v>
@@ -36567,13 +36575,13 @@
     </row>
     <row r="282" spans="1:10" ht="51" customHeight="1">
       <c r="A282" s="30" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D282" s="5">
         <v>380</v>
@@ -36594,10 +36602,10 @@
     <row r="283" spans="1:10" ht="51" customHeight="1">
       <c r="A283" s="31"/>
       <c r="B283" s="15" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D283" s="11">
         <v>0.84</v>
@@ -36618,10 +36626,10 @@
     <row r="284" spans="1:10" ht="51" customHeight="1">
       <c r="A284" s="31"/>
       <c r="B284" s="15" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D284" s="11">
         <v>1.8</v>
@@ -36642,10 +36650,10 @@
     <row r="285" spans="1:10" ht="51" customHeight="1">
       <c r="A285" s="31"/>
       <c r="B285" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D285" s="11">
         <v>6.96</v>
@@ -36666,10 +36674,10 @@
     <row r="286" spans="1:10" ht="51" customHeight="1">
       <c r="A286" s="31"/>
       <c r="B286" s="15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D286" s="11">
         <v>4.62</v>
@@ -36690,10 +36698,10 @@
     <row r="287" spans="1:10" ht="51" customHeight="1">
       <c r="A287" s="31"/>
       <c r="B287" s="15" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D287" s="11">
         <v>3.34</v>
@@ -36714,10 +36722,10 @@
     <row r="288" spans="1:10" ht="51" customHeight="1">
       <c r="A288" s="31"/>
       <c r="B288" s="15" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D288" s="11">
         <v>10.02</v>
@@ -36738,10 +36746,10 @@
     <row r="289" spans="1:10" ht="51" customHeight="1">
       <c r="A289" s="31"/>
       <c r="B289" s="15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D289" s="11">
         <v>32.200000000000003</v>
@@ -36762,10 +36770,10 @@
     <row r="290" spans="1:10" ht="51" customHeight="1">
       <c r="A290" s="31"/>
       <c r="B290" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D290" s="11">
         <v>476.15</v>
@@ -36786,13 +36794,13 @@
     <row r="291" spans="1:10" ht="51.4" customHeight="1">
       <c r="A291" s="31"/>
       <c r="B291" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E291" s="28">
         <v>93.641000000000005</v>
@@ -36809,7 +36817,7 @@
     </row>
     <row r="292" spans="1:10" ht="23.65" customHeight="1">
       <c r="A292" s="38" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B292" s="39"/>
       <c r="C292" s="39"/>
@@ -36823,7 +36831,7 @@
     </row>
     <row r="293" spans="1:10" ht="17.25" customHeight="1">
       <c r="A293" s="40" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B293" s="39"/>
       <c r="C293" s="39"/>
@@ -36837,7 +36845,7 @@
     </row>
     <row r="294" spans="1:10" ht="17.25" customHeight="1">
       <c r="A294" s="41" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B294" s="42"/>
       <c r="C294" s="42"/>
@@ -36851,31 +36859,31 @@
     </row>
     <row r="295" spans="1:10" ht="14.15" customHeight="1">
       <c r="A295" s="47" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B295" s="29"/>
       <c r="C295" s="29"/>
       <c r="D295" s="29"/>
       <c r="E295" s="46" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F295" s="29"/>
       <c r="G295" s="29"/>
       <c r="H295" s="46" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I295" s="29"/>
       <c r="J295" s="29"/>
     </row>
     <row r="296" spans="1:10" ht="14.15" customHeight="1">
       <c r="A296" s="47" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
       <c r="D296" s="29"/>
       <c r="E296" s="47" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F296" s="29"/>
       <c r="G296" s="29"/>
@@ -36889,12 +36897,12 @@
       <c r="C297" s="29"/>
       <c r="D297" s="29"/>
       <c r="E297" s="47" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F297" s="29"/>
       <c r="G297" s="29"/>
       <c r="H297" s="47" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I297" s="29"/>
       <c r="J297" s="29"/>
@@ -36905,7 +36913,7 @@
       <c r="C298" s="29"/>
       <c r="D298" s="29"/>
       <c r="E298" s="47" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F298" s="29"/>
       <c r="G298" s="29"/>
@@ -36915,7 +36923,7 @@
     </row>
     <row r="299" spans="1:10" ht="14.15" customHeight="1">
       <c r="A299" s="47" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B299" s="29"/>
       <c r="C299" s="29"/>
@@ -36933,10 +36941,10 @@
     </row>
     <row r="300" spans="1:10" ht="14.15" customHeight="1">
       <c r="A300" s="30" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B300" s="47" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C300" s="29"/>
       <c r="D300" s="29"/>
@@ -36954,7 +36962,7 @@
     <row r="301" spans="1:10" ht="14.15" customHeight="1">
       <c r="A301" s="31"/>
       <c r="B301" s="47" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C301" s="29"/>
       <c r="D301" s="29"/>
@@ -36972,7 +36980,7 @@
     <row r="302" spans="1:10" ht="14.25" customHeight="1">
       <c r="A302" s="31"/>
       <c r="B302" s="47" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C302" s="29"/>
       <c r="D302" s="29"/>
@@ -36990,7 +36998,7 @@
     <row r="303" spans="1:10" ht="14" customHeight="1">
       <c r="A303" s="31"/>
       <c r="B303" s="47" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C303" s="29"/>
       <c r="D303" s="29"/>
@@ -37008,7 +37016,7 @@
     <row r="304" spans="1:10" ht="14.15" customHeight="1">
       <c r="A304" s="31"/>
       <c r="B304" s="47" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C304" s="29"/>
       <c r="D304" s="29"/>
@@ -37025,17 +37033,17 @@
     </row>
     <row r="305" spans="1:10" ht="17.75" customHeight="1">
       <c r="A305" s="47" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B305" s="29"/>
       <c r="C305" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E305" s="47" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F305" s="29"/>
       <c r="G305" s="29"/>
@@ -37045,13 +37053,13 @@
     </row>
     <row r="306" spans="1:10" ht="90" customHeight="1">
       <c r="A306" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D306" s="5">
         <v>1</v>
@@ -37069,13 +37077,13 @@
     </row>
     <row r="307" spans="1:10" ht="90.25" customHeight="1">
       <c r="A307" s="30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D307" s="5">
         <v>150</v>
@@ -37086,7 +37094,7 @@
       <c r="F307" s="29"/>
       <c r="G307" s="29"/>
       <c r="H307" s="46" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I307" s="29"/>
       <c r="J307" s="29"/>
@@ -37094,16 +37102,16 @@
     <row r="308" spans="1:10" ht="90.25" customHeight="1">
       <c r="A308" s="31"/>
       <c r="B308" s="15" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D308" s="11">
         <v>157</v>
       </c>
       <c r="E308" s="52" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F308" s="33"/>
       <c r="G308" s="33"/>
@@ -37116,10 +37124,10 @@
     <row r="309" spans="1:10" ht="89.5" customHeight="1">
       <c r="A309" s="31"/>
       <c r="B309" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D309" s="11">
         <v>687.61</v>
@@ -37138,10 +37146,10 @@
     <row r="310" spans="1:10" ht="89.15" customHeight="1">
       <c r="A310" s="31"/>
       <c r="B310" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D310" s="5">
         <v>4.62</v>
@@ -37159,13 +37167,13 @@
     </row>
     <row r="311" spans="1:10" ht="89.9" customHeight="1">
       <c r="A311" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D311" s="5">
         <v>265.88</v>
@@ -37183,7 +37191,7 @@
     </row>
     <row r="312" spans="1:10" ht="18.75" customHeight="1">
       <c r="A312" s="50" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
@@ -37197,7 +37205,7 @@
     </row>
     <row r="313" spans="1:10" ht="17.25" customHeight="1">
       <c r="A313" s="41" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B313" s="42"/>
       <c r="C313" s="42"/>
@@ -37211,31 +37219,31 @@
     </row>
     <row r="314" spans="1:10" ht="14.15" customHeight="1">
       <c r="A314" s="47" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B314" s="29"/>
       <c r="C314" s="29"/>
       <c r="D314" s="29"/>
       <c r="E314" s="46" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F314" s="29"/>
       <c r="G314" s="29"/>
       <c r="H314" s="46" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I314" s="29"/>
       <c r="J314" s="29"/>
     </row>
     <row r="315" spans="1:10" ht="14.15" customHeight="1">
       <c r="A315" s="47" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B315" s="29"/>
       <c r="C315" s="29"/>
       <c r="D315" s="29"/>
       <c r="E315" s="47" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F315" s="29"/>
       <c r="G315" s="29"/>
@@ -37249,12 +37257,12 @@
       <c r="C316" s="29"/>
       <c r="D316" s="29"/>
       <c r="E316" s="47" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F316" s="29"/>
       <c r="G316" s="29"/>
       <c r="H316" s="47" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I316" s="29"/>
       <c r="J316" s="29"/>
@@ -37265,7 +37273,7 @@
       <c r="C317" s="29"/>
       <c r="D317" s="29"/>
       <c r="E317" s="47" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F317" s="29"/>
       <c r="G317" s="29"/>
@@ -37275,7 +37283,7 @@
     </row>
     <row r="318" spans="1:10" ht="14.15" customHeight="1">
       <c r="A318" s="47" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B318" s="29"/>
       <c r="C318" s="29"/>
@@ -37293,10 +37301,10 @@
     </row>
     <row r="319" spans="1:10" ht="14.15" customHeight="1">
       <c r="A319" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B319" s="47" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C319" s="29"/>
       <c r="D319" s="29"/>
@@ -37314,7 +37322,7 @@
     <row r="320" spans="1:10" ht="14.15" customHeight="1">
       <c r="A320" s="31"/>
       <c r="B320" s="47" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C320" s="29"/>
       <c r="D320" s="29"/>
@@ -37332,7 +37340,7 @@
     <row r="321" spans="1:10" ht="14.15" customHeight="1">
       <c r="A321" s="31"/>
       <c r="B321" s="47" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C321" s="29"/>
       <c r="D321" s="29"/>
@@ -37350,7 +37358,7 @@
     <row r="322" spans="1:10" ht="14" customHeight="1">
       <c r="A322" s="31"/>
       <c r="B322" s="47" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C322" s="29"/>
       <c r="D322" s="29"/>
@@ -37368,7 +37376,7 @@
     <row r="323" spans="1:10" ht="14.4" customHeight="1">
       <c r="A323" s="31"/>
       <c r="B323" s="47" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C323" s="29"/>
       <c r="D323" s="29"/>
@@ -37385,17 +37393,17 @@
     </row>
     <row r="324" spans="1:10" ht="17.75" customHeight="1">
       <c r="A324" s="47" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B324" s="29"/>
       <c r="C324" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E324" s="47" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F324" s="29"/>
       <c r="G324" s="29"/>
@@ -37405,13 +37413,13 @@
     </row>
     <row r="325" spans="1:10" ht="93.75" customHeight="1">
       <c r="A325" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D325" s="5">
         <v>1</v>
@@ -37429,13 +37437,13 @@
     </row>
     <row r="326" spans="1:10" ht="94" customHeight="1">
       <c r="A326" s="30" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D326" s="11">
         <v>157</v>
@@ -37446,7 +37454,7 @@
       <c r="F326" s="33"/>
       <c r="G326" s="33"/>
       <c r="H326" s="52" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I326" s="33"/>
       <c r="J326" s="33"/>
@@ -37454,16 +37462,16 @@
     <row r="327" spans="1:10" ht="94" customHeight="1">
       <c r="A327" s="31"/>
       <c r="B327" s="15" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D327" s="11">
         <v>157</v>
       </c>
       <c r="E327" s="32" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F327" s="33"/>
       <c r="G327" s="33"/>
@@ -37476,10 +37484,10 @@
     <row r="328" spans="1:10" ht="94" customHeight="1">
       <c r="A328" s="31"/>
       <c r="B328" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D328" s="11">
         <v>687.61</v>
@@ -37498,10 +37506,10 @@
     <row r="329" spans="1:10" ht="93.65" customHeight="1">
       <c r="A329" s="31"/>
       <c r="B329" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D329" s="5">
         <v>4.62</v>
@@ -37519,13 +37527,13 @@
     </row>
     <row r="330" spans="1:10" ht="93.65" customHeight="1">
       <c r="A330" s="17" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D330" s="5">
         <v>265.88</v>
@@ -37543,7 +37551,7 @@
     </row>
     <row r="331" spans="1:10" ht="18.75" customHeight="1">
       <c r="A331" s="50" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B331" s="39"/>
       <c r="C331" s="39"/>
@@ -37557,7 +37565,7 @@
     </row>
     <row r="332" spans="1:10" ht="30" customHeight="1">
       <c r="A332" s="60" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B332" s="61"/>
       <c r="C332" s="61"/>
@@ -37571,42 +37579,42 @@
     </row>
     <row r="333" spans="1:10" ht="14.25" customHeight="1">
       <c r="A333" s="47" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B333" s="29"/>
       <c r="C333" s="29"/>
       <c r="D333" s="29"/>
       <c r="E333" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F333" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G333" s="29"/>
       <c r="H333" s="46" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I333" s="29"/>
       <c r="J333" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="14.25" customHeight="1">
       <c r="A334" s="47" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B334" s="29"/>
       <c r="C334" s="29"/>
       <c r="D334" s="29"/>
       <c r="E334" s="47" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F334" s="29"/>
       <c r="G334" s="29"/>
       <c r="H334" s="29"/>
       <c r="I334" s="29"/>
       <c r="J334" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="14.25" customHeight="1">
@@ -37615,18 +37623,18 @@
       <c r="C335" s="29"/>
       <c r="D335" s="29"/>
       <c r="E335" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F335" s="47" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G335" s="29"/>
       <c r="H335" s="47" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I335" s="29"/>
       <c r="J335" s="47" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="14.25" customHeight="1">
@@ -37635,7 +37643,7 @@
       <c r="C336" s="29"/>
       <c r="D336" s="29"/>
       <c r="E336" s="47" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F336" s="29"/>
       <c r="G336" s="29"/>
@@ -37645,7 +37653,7 @@
     </row>
     <row r="337" spans="1:10" ht="14.25" customHeight="1">
       <c r="A337" s="47" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B337" s="29"/>
       <c r="C337" s="29"/>
@@ -37667,10 +37675,10 @@
     </row>
     <row r="338" spans="1:10" ht="14.25" customHeight="1">
       <c r="A338" s="30" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B338" s="47" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C338" s="29"/>
       <c r="D338" s="29"/>
@@ -37692,7 +37700,7 @@
     <row r="339" spans="1:10" ht="14.25" customHeight="1">
       <c r="A339" s="31"/>
       <c r="B339" s="47" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C339" s="29"/>
       <c r="D339" s="29"/>
@@ -37714,7 +37722,7 @@
     <row r="340" spans="1:10" ht="14.25" customHeight="1">
       <c r="A340" s="31"/>
       <c r="B340" s="47" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C340" s="29"/>
       <c r="D340" s="29"/>
@@ -37736,7 +37744,7 @@
     <row r="341" spans="1:10" ht="14.15" customHeight="1">
       <c r="A341" s="31"/>
       <c r="B341" s="47" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C341" s="29"/>
       <c r="D341" s="29"/>
@@ -37758,7 +37766,7 @@
     <row r="342" spans="1:10" ht="14.25" customHeight="1">
       <c r="A342" s="31"/>
       <c r="B342" s="47" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C342" s="29"/>
       <c r="D342" s="29"/>
@@ -37779,17 +37787,17 @@
     </row>
     <row r="343" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A343" s="47" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B343" s="29"/>
       <c r="C343" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E343" s="47" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F343" s="29"/>
       <c r="G343" s="29"/>
@@ -37799,13 +37807,13 @@
     </row>
     <row r="344" spans="1:10" ht="68.900000000000006" customHeight="1">
       <c r="A344" s="17" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D344" s="5">
         <v>1</v>
@@ -37827,13 +37835,13 @@
     </row>
     <row r="345" spans="1:10" ht="69.150000000000006" customHeight="1">
       <c r="A345" s="30" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D345" s="5">
         <v>150</v>
@@ -37842,59 +37850,59 @@
         <v>11.22</v>
       </c>
       <c r="F345" s="64" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G345" s="29"/>
       <c r="H345" s="64" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I345" s="29"/>
       <c r="J345" s="18" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="69" customHeight="1">
       <c r="A346" s="31"/>
       <c r="B346" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D346" s="11">
         <v>157</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F346" s="34">
         <v>10.143000000000001</v>
       </c>
       <c r="G346" s="33"/>
       <c r="H346" s="52" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I346" s="33"/>
       <c r="J346" s="13" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="69" customHeight="1">
       <c r="A347" s="31"/>
       <c r="B347" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D347" s="11">
         <v>157</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F347" s="52" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G347" s="33"/>
       <c r="H347" s="34">
@@ -37902,29 +37910,29 @@
       </c>
       <c r="I347" s="33"/>
       <c r="J347" s="13" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="68.25" customHeight="1">
       <c r="A348" s="31"/>
       <c r="B348" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D348" s="11">
         <v>2700</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F348" s="52" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G348" s="33"/>
       <c r="H348" s="52" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I348" s="33"/>
       <c r="J348" s="12">
@@ -37934,10 +37942,10 @@
     <row r="349" spans="1:10" ht="68.25" customHeight="1">
       <c r="A349" s="31"/>
       <c r="B349" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D349" s="11">
         <v>687.61</v>
@@ -37960,10 +37968,10 @@
     <row r="350" spans="1:10" ht="68" customHeight="1">
       <c r="A350" s="31"/>
       <c r="B350" s="6" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D350" s="5">
         <v>4.62</v>
@@ -37985,13 +37993,13 @@
     </row>
     <row r="351" spans="1:10" ht="68.75" customHeight="1">
       <c r="A351" s="17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D351" s="5">
         <v>265.88</v>
@@ -38013,7 +38021,7 @@
     </row>
     <row r="352" spans="1:10" ht="18.75" customHeight="1">
       <c r="A352" s="50" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B352" s="39"/>
       <c r="C352" s="39"/>
@@ -38027,7 +38035,7 @@
     </row>
     <row r="353" spans="1:10" ht="42.75" customHeight="1">
       <c r="A353" s="60" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B353" s="61"/>
       <c r="C353" s="61"/>
@@ -38041,33 +38049,33 @@
     </row>
     <row r="354" spans="1:10" ht="14.25" customHeight="1">
       <c r="A354" s="47" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B354" s="29"/>
       <c r="C354" s="29"/>
       <c r="D354" s="29"/>
       <c r="E354" s="46" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F354" s="29"/>
       <c r="G354" s="46" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H354" s="29"/>
       <c r="I354" s="46" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J354" s="29"/>
     </row>
     <row r="355" spans="1:10" ht="14.25" customHeight="1">
       <c r="A355" s="47" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B355" s="29"/>
       <c r="C355" s="29"/>
       <c r="D355" s="29"/>
       <c r="E355" s="47" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F355" s="29"/>
       <c r="G355" s="29"/>
@@ -38081,15 +38089,15 @@
       <c r="C356" s="29"/>
       <c r="D356" s="29"/>
       <c r="E356" s="47" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F356" s="29"/>
       <c r="G356" s="47" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H356" s="29"/>
       <c r="I356" s="47" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J356" s="29"/>
     </row>
@@ -38099,7 +38107,7 @@
       <c r="C357" s="29"/>
       <c r="D357" s="29"/>
       <c r="E357" s="47" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F357" s="29"/>
       <c r="G357" s="29"/>
@@ -38109,7 +38117,7 @@
     </row>
     <row r="358" spans="1:10" ht="14.25" customHeight="1">
       <c r="A358" s="47" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B358" s="29"/>
       <c r="C358" s="29"/>
@@ -38129,10 +38137,10 @@
     </row>
     <row r="359" spans="1:10" ht="14.15" customHeight="1">
       <c r="A359" s="30" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B359" s="47" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C359" s="29"/>
       <c r="D359" s="29"/>
@@ -38152,7 +38160,7 @@
     <row r="360" spans="1:10" ht="14.15" customHeight="1">
       <c r="A360" s="31"/>
       <c r="B360" s="47" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C360" s="29"/>
       <c r="D360" s="29"/>
@@ -38172,7 +38180,7 @@
     <row r="361" spans="1:10" ht="14.15" customHeight="1">
       <c r="A361" s="31"/>
       <c r="B361" s="47" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C361" s="29"/>
       <c r="D361" s="29"/>
@@ -38192,7 +38200,7 @@
     <row r="362" spans="1:10" ht="14.15" customHeight="1">
       <c r="A362" s="31"/>
       <c r="B362" s="47" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C362" s="29"/>
       <c r="D362" s="29"/>
@@ -38212,7 +38220,7 @@
     <row r="363" spans="1:10" ht="14.15" customHeight="1">
       <c r="A363" s="31"/>
       <c r="B363" s="47" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C363" s="29"/>
       <c r="D363" s="29"/>
@@ -38231,17 +38239,17 @@
     </row>
     <row r="364" spans="1:10" ht="17.899999999999999" customHeight="1">
       <c r="A364" s="47" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B364" s="29"/>
       <c r="C364" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E364" s="47" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F364" s="29"/>
       <c r="G364" s="29"/>
@@ -38251,13 +38259,13 @@
     </row>
     <row r="365" spans="1:10" ht="77.150000000000006" customHeight="1">
       <c r="A365" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -38277,13 +38285,13 @@
     </row>
     <row r="366" spans="1:10" ht="76.650000000000006" customHeight="1">
       <c r="A366" s="30" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D366" s="11">
         <v>150</v>
@@ -38293,27 +38301,27 @@
       </c>
       <c r="F366" s="33"/>
       <c r="G366" s="52" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H366" s="33"/>
       <c r="I366" s="52" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J366" s="33"/>
     </row>
     <row r="367" spans="1:10" ht="76.650000000000006" customHeight="1">
       <c r="A367" s="31"/>
       <c r="B367" s="15" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D367" s="11">
         <v>157</v>
       </c>
       <c r="E367" s="52" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F367" s="33"/>
       <c r="G367" s="34">
@@ -38321,27 +38329,27 @@
       </c>
       <c r="H367" s="33"/>
       <c r="I367" s="52" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J367" s="33"/>
     </row>
     <row r="368" spans="1:10" ht="76.650000000000006" customHeight="1">
       <c r="A368" s="31"/>
       <c r="B368" s="15" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D368" s="11">
         <v>157</v>
       </c>
       <c r="E368" s="52" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="52" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H368" s="33"/>
       <c r="I368" s="34">
@@ -38352,10 +38360,10 @@
     <row r="369" spans="1:10" ht="76.650000000000006" customHeight="1">
       <c r="A369" s="31"/>
       <c r="B369" s="9" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D369" s="11">
         <v>687.61</v>
@@ -38376,10 +38384,10 @@
     <row r="370" spans="1:10" ht="76.25" customHeight="1">
       <c r="A370" s="31"/>
       <c r="B370" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D370" s="5">
         <v>4.62</v>
@@ -38399,13 +38407,13 @@
     </row>
     <row r="371" spans="1:10" ht="77" customHeight="1">
       <c r="A371" s="17" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D371" s="5">
         <v>265.88</v>
@@ -38425,7 +38433,7 @@
     </row>
     <row r="372" spans="1:10" ht="18.75" customHeight="1">
       <c r="A372" s="50" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B372" s="39"/>
       <c r="C372" s="39"/>
@@ -38439,7 +38447,7 @@
     </row>
     <row r="373" spans="1:10" ht="30" customHeight="1">
       <c r="A373" s="65" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B373" s="66"/>
       <c r="C373" s="66"/>
@@ -38453,31 +38461,31 @@
     </row>
     <row r="374" spans="1:10" ht="14.15" customHeight="1">
       <c r="A374" s="47" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B374" s="29"/>
       <c r="C374" s="29"/>
       <c r="D374" s="29"/>
       <c r="E374" s="46" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F374" s="29"/>
       <c r="G374" s="29"/>
       <c r="H374" s="46" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="I374" s="29"/>
       <c r="J374" s="29"/>
     </row>
     <row r="375" spans="1:10" ht="14.15" customHeight="1">
       <c r="A375" s="47" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B375" s="29"/>
       <c r="C375" s="29"/>
       <c r="D375" s="29"/>
       <c r="E375" s="47" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F375" s="29"/>
       <c r="G375" s="29"/>
@@ -38491,19 +38499,19 @@
       <c r="C376" s="29"/>
       <c r="D376" s="29"/>
       <c r="E376" s="47" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F376" s="29"/>
       <c r="G376" s="29"/>
       <c r="H376" s="47" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="I376" s="29"/>
       <c r="J376" s="29"/>
     </row>
     <row r="377" spans="1:10" ht="14.15" customHeight="1">
       <c r="A377" s="47" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B377" s="29"/>
       <c r="C377" s="29"/>
@@ -38521,10 +38529,10 @@
     </row>
     <row r="378" spans="1:10" ht="14.15" customHeight="1">
       <c r="A378" s="30" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B378" s="47" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C378" s="29"/>
       <c r="D378" s="29"/>
@@ -38542,7 +38550,7 @@
     <row r="379" spans="1:10" ht="14.15" customHeight="1">
       <c r="A379" s="31"/>
       <c r="B379" s="47" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C379" s="29"/>
       <c r="D379" s="29"/>
@@ -38560,12 +38568,12 @@
     <row r="380" spans="1:10" ht="14.15" customHeight="1">
       <c r="A380" s="31"/>
       <c r="B380" s="47" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C380" s="29"/>
       <c r="D380" s="29"/>
       <c r="E380" s="63" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F380" s="29"/>
       <c r="G380" s="29"/>
@@ -38578,7 +38586,7 @@
     <row r="381" spans="1:10" ht="14" customHeight="1">
       <c r="A381" s="31"/>
       <c r="B381" s="47" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C381" s="29"/>
       <c r="D381" s="29"/>
@@ -38596,7 +38604,7 @@
     <row r="382" spans="1:10" ht="14.25" customHeight="1">
       <c r="A382" s="31"/>
       <c r="B382" s="47" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C382" s="29"/>
       <c r="D382" s="29"/>
@@ -38613,17 +38621,17 @@
     </row>
     <row r="383" spans="1:10" ht="17.75" customHeight="1">
       <c r="A383" s="47" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B383" s="29"/>
       <c r="C383" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E383" s="47" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F383" s="29"/>
       <c r="G383" s="29"/>
@@ -38633,13 +38641,13 @@
     </row>
     <row r="384" spans="1:10" ht="94.5" customHeight="1">
       <c r="A384" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D384" s="5">
         <v>1</v>
@@ -38657,13 +38665,13 @@
     </row>
     <row r="385" spans="1:10" ht="94" customHeight="1">
       <c r="A385" s="30" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D385" s="5">
         <v>150</v>
@@ -38682,10 +38690,10 @@
     <row r="386" spans="1:10" ht="94" customHeight="1">
       <c r="A386" s="31"/>
       <c r="B386" s="15" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D386" s="11">
         <v>263.25</v>
@@ -38696,7 +38704,7 @@
       <c r="F386" s="33"/>
       <c r="G386" s="33"/>
       <c r="H386" s="52" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I386" s="33"/>
       <c r="J386" s="33"/>
@@ -38704,16 +38712,16 @@
     <row r="387" spans="1:10" ht="94" customHeight="1">
       <c r="A387" s="31"/>
       <c r="B387" s="15" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D387" s="11">
         <v>4.62</v>
       </c>
       <c r="E387" s="32" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F387" s="33"/>
       <c r="G387" s="33"/>
@@ -38726,16 +38734,16 @@
     <row r="388" spans="1:10" ht="93.65" customHeight="1">
       <c r="A388" s="31"/>
       <c r="B388" s="8" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D388" s="5">
         <v>687.61</v>
       </c>
       <c r="E388" s="46" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F388" s="29"/>
       <c r="G388" s="29"/>
@@ -38747,19 +38755,19 @@
     </row>
     <row r="389" spans="1:10" ht="94.4" customHeight="1">
       <c r="A389" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D389" s="5">
         <v>265.88</v>
       </c>
       <c r="E389" s="55" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F389" s="29"/>
       <c r="G389" s="29"/>
@@ -38771,7 +38779,7 @@
     </row>
     <row r="390" spans="1:10" ht="18.75" customHeight="1">
       <c r="A390" s="50" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B390" s="39"/>
       <c r="C390" s="39"/>
@@ -38785,7 +38793,7 @@
     </row>
     <row r="391" spans="1:10" ht="17.25" customHeight="1">
       <c r="A391" s="41" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B391" s="42"/>
       <c r="C391" s="42"/>
@@ -38799,13 +38807,13 @@
     </row>
     <row r="392" spans="1:10" ht="14.15" customHeight="1">
       <c r="A392" s="47" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B392" s="29"/>
       <c r="C392" s="29"/>
       <c r="D392" s="29"/>
       <c r="E392" s="46" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F392" s="29"/>
       <c r="G392" s="29"/>
@@ -38815,13 +38823,13 @@
     </row>
     <row r="393" spans="1:10" ht="14.15" customHeight="1">
       <c r="A393" s="47" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B393" s="29"/>
       <c r="C393" s="29"/>
       <c r="D393" s="29"/>
       <c r="E393" s="47" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F393" s="29"/>
       <c r="G393" s="29"/>
@@ -38835,7 +38843,7 @@
       <c r="C394" s="29"/>
       <c r="D394" s="29"/>
       <c r="E394" s="47" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F394" s="29"/>
       <c r="G394" s="29"/>
@@ -38845,7 +38853,7 @@
     </row>
     <row r="395" spans="1:10" ht="14" customHeight="1">
       <c r="A395" s="47" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B395" s="29"/>
       <c r="C395" s="29"/>
@@ -38861,10 +38869,10 @@
     </row>
     <row r="396" spans="1:10" ht="14" customHeight="1">
       <c r="A396" s="30" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B396" s="47" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C396" s="29"/>
       <c r="D396" s="29"/>
@@ -38880,7 +38888,7 @@
     <row r="397" spans="1:10" ht="14" customHeight="1">
       <c r="A397" s="31"/>
       <c r="B397" s="47" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C397" s="29"/>
       <c r="D397" s="29"/>
@@ -38896,7 +38904,7 @@
     <row r="398" spans="1:10" ht="14" customHeight="1">
       <c r="A398" s="31"/>
       <c r="B398" s="47" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C398" s="29"/>
       <c r="D398" s="29"/>
@@ -38912,7 +38920,7 @@
     <row r="399" spans="1:10" ht="14" customHeight="1">
       <c r="A399" s="31"/>
       <c r="B399" s="47" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C399" s="29"/>
       <c r="D399" s="29"/>
@@ -38928,7 +38936,7 @@
     <row r="400" spans="1:10" ht="14.25" customHeight="1">
       <c r="A400" s="31"/>
       <c r="B400" s="47" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C400" s="29"/>
       <c r="D400" s="29"/>
@@ -38943,17 +38951,17 @@
     </row>
     <row r="401" spans="1:10" ht="17.75" customHeight="1">
       <c r="A401" s="47" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B401" s="29"/>
       <c r="C401" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E401" s="47" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F401" s="29"/>
       <c r="G401" s="29"/>
@@ -38963,13 +38971,13 @@
     </row>
     <row r="402" spans="1:10" ht="115.65" customHeight="1">
       <c r="A402" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D402" s="5">
         <v>1</v>
@@ -38985,13 +38993,13 @@
     </row>
     <row r="403" spans="1:10" ht="115.9" customHeight="1">
       <c r="A403" s="30" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D403" s="5">
         <v>2700</v>
@@ -39008,10 +39016,10 @@
     <row r="404" spans="1:10" ht="115.9" customHeight="1">
       <c r="A404" s="31"/>
       <c r="B404" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D404" s="11">
         <v>687.61</v>
@@ -39028,10 +39036,10 @@
     <row r="405" spans="1:10" ht="114.75" customHeight="1">
       <c r="A405" s="31"/>
       <c r="B405" s="6" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D405" s="5">
         <v>4.62</v>
@@ -39047,13 +39055,13 @@
     </row>
     <row r="406" spans="1:10" ht="115.5" customHeight="1">
       <c r="A406" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D406" s="5">
         <v>265.88</v>
@@ -39069,7 +39077,7 @@
     </row>
     <row r="407" spans="1:10" ht="18.75" customHeight="1">
       <c r="A407" s="50" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B407" s="39"/>
       <c r="C407" s="39"/>
@@ -39083,7 +39091,7 @@
     </row>
     <row r="408" spans="1:10" ht="17.25" customHeight="1">
       <c r="A408" s="41" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B408" s="42"/>
       <c r="C408" s="42"/>
@@ -39097,13 +39105,13 @@
     </row>
     <row r="409" spans="1:10" ht="14.15" customHeight="1">
       <c r="A409" s="47" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B409" s="29"/>
       <c r="C409" s="29"/>
       <c r="D409" s="29"/>
       <c r="E409" s="46" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F409" s="29"/>
       <c r="G409" s="29"/>
@@ -39113,13 +39121,13 @@
     </row>
     <row r="410" spans="1:10" ht="14.15" customHeight="1">
       <c r="A410" s="47" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B410" s="29"/>
       <c r="C410" s="29"/>
       <c r="D410" s="29"/>
       <c r="E410" s="47" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F410" s="29"/>
       <c r="G410" s="29"/>
@@ -39133,7 +39141,7 @@
       <c r="C411" s="29"/>
       <c r="D411" s="29"/>
       <c r="E411" s="47" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F411" s="29"/>
       <c r="G411" s="29"/>
@@ -39143,7 +39151,7 @@
     </row>
     <row r="412" spans="1:10" ht="14" customHeight="1">
       <c r="A412" s="47" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B412" s="29"/>
       <c r="C412" s="29"/>
@@ -39159,10 +39167,10 @@
     </row>
     <row r="413" spans="1:10" ht="14" customHeight="1">
       <c r="A413" s="30" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B413" s="47" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C413" s="29"/>
       <c r="D413" s="29"/>
@@ -39178,7 +39186,7 @@
     <row r="414" spans="1:10" ht="14" customHeight="1">
       <c r="A414" s="31"/>
       <c r="B414" s="47" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C414" s="29"/>
       <c r="D414" s="29"/>
@@ -39194,7 +39202,7 @@
     <row r="415" spans="1:10" ht="14" customHeight="1">
       <c r="A415" s="31"/>
       <c r="B415" s="47" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C415" s="29"/>
       <c r="D415" s="29"/>
@@ -39210,7 +39218,7 @@
     <row r="416" spans="1:10" ht="14" customHeight="1">
       <c r="A416" s="31"/>
       <c r="B416" s="47" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C416" s="29"/>
       <c r="D416" s="29"/>
@@ -39226,7 +39234,7 @@
     <row r="417" spans="1:10" ht="14.25" customHeight="1">
       <c r="A417" s="31"/>
       <c r="B417" s="47" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C417" s="29"/>
       <c r="D417" s="29"/>
@@ -39241,17 +39249,17 @@
     </row>
     <row r="418" spans="1:10" ht="14" customHeight="1">
       <c r="A418" s="47" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B418" s="29"/>
       <c r="C418" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E418" s="47" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F418" s="29"/>
       <c r="G418" s="29"/>
@@ -39261,13 +39269,13 @@
     </row>
     <row r="419" spans="1:10" ht="116.4" customHeight="1">
       <c r="A419" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D419" s="5">
         <v>1</v>
@@ -39283,13 +39291,13 @@
     </row>
     <row r="420" spans="1:10" ht="116.65" customHeight="1">
       <c r="A420" s="30" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D420" s="11">
         <v>280</v>
@@ -39306,10 +39314,10 @@
     <row r="421" spans="1:10" ht="116.65" customHeight="1">
       <c r="A421" s="31"/>
       <c r="B421" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D421" s="11">
         <v>687.61</v>
@@ -39326,13 +39334,13 @@
     <row r="422" spans="1:10" ht="115.5" customHeight="1">
       <c r="A422" s="31"/>
       <c r="B422" s="6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E422" s="28">
         <v>504.79899999999998</v>
@@ -39345,13 +39353,13 @@
     </row>
     <row r="423" spans="1:10" ht="116.25" customHeight="1">
       <c r="A423" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D423" s="5">
         <v>265.88</v>
@@ -39367,7 +39375,7 @@
     </row>
     <row r="424" spans="1:10" ht="18.75" customHeight="1">
       <c r="A424" s="50" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B424" s="39"/>
       <c r="C424" s="39"/>
@@ -39381,7 +39389,7 @@
     </row>
     <row r="425" spans="1:10" ht="17.25" customHeight="1">
       <c r="A425" s="41" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B425" s="42"/>
       <c r="C425" s="42"/>
@@ -39395,38 +39403,38 @@
     </row>
     <row r="426" spans="1:10" ht="14.25" customHeight="1">
       <c r="A426" s="47" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B426" s="29"/>
       <c r="C426" s="29"/>
       <c r="D426" s="29"/>
       <c r="E426" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F426" s="46" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G426" s="29"/>
       <c r="H426" s="46" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I426" s="29"/>
       <c r="J426" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="14.25" customHeight="1">
       <c r="A427" s="47" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B427" s="29"/>
       <c r="C427" s="29"/>
       <c r="D427" s="29"/>
       <c r="E427" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F427" s="47" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G427" s="29"/>
       <c r="H427" s="29"/>
@@ -39439,23 +39447,23 @@
       <c r="C428" s="29"/>
       <c r="D428" s="29"/>
       <c r="E428" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F428" s="47" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G428" s="29"/>
       <c r="H428" s="47" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I428" s="29"/>
       <c r="J428" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="429" spans="1:10" ht="14.25" customHeight="1">
       <c r="A429" s="47" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B429" s="29"/>
       <c r="C429" s="29"/>
@@ -39477,10 +39485,10 @@
     </row>
     <row r="430" spans="1:10" ht="14.15" customHeight="1">
       <c r="A430" s="30" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B430" s="47" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C430" s="29"/>
       <c r="D430" s="29"/>
@@ -39502,7 +39510,7 @@
     <row r="431" spans="1:10" ht="14.15" customHeight="1">
       <c r="A431" s="31"/>
       <c r="B431" s="47" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C431" s="29"/>
       <c r="D431" s="29"/>
@@ -39524,7 +39532,7 @@
     <row r="432" spans="1:10" ht="14.15" customHeight="1">
       <c r="A432" s="31"/>
       <c r="B432" s="47" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C432" s="29"/>
       <c r="D432" s="29"/>
@@ -39546,7 +39554,7 @@
     <row r="433" spans="1:10" ht="14.15" customHeight="1">
       <c r="A433" s="31"/>
       <c r="B433" s="47" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C433" s="29"/>
       <c r="D433" s="29"/>
@@ -39568,7 +39576,7 @@
     <row r="434" spans="1:10" ht="14.15" customHeight="1">
       <c r="A434" s="31"/>
       <c r="B434" s="47" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C434" s="29"/>
       <c r="D434" s="29"/>
@@ -39589,17 +39597,17 @@
     </row>
     <row r="435" spans="1:10" ht="17.75" customHeight="1">
       <c r="A435" s="47" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B435" s="29"/>
       <c r="C435" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E435" s="47" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F435" s="29"/>
       <c r="G435" s="29"/>
@@ -39609,13 +39617,13 @@
     </row>
     <row r="436" spans="1:10" ht="144" customHeight="1">
       <c r="A436" s="4" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D436" s="5">
         <v>1</v>
@@ -39637,13 +39645,13 @@
     </row>
     <row r="437" spans="1:10" ht="144.4" customHeight="1">
       <c r="A437" s="30" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D437" s="11">
         <v>703.98</v>
@@ -39666,10 +39674,10 @@
     <row r="438" spans="1:10" ht="144" customHeight="1">
       <c r="A438" s="31"/>
       <c r="B438" s="6" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D438" s="5">
         <v>4.62</v>
@@ -39691,13 +39699,13 @@
     </row>
     <row r="439" spans="1:10" ht="144.75" customHeight="1">
       <c r="A439" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D439" s="5">
         <v>265.88</v>
@@ -39719,7 +39727,7 @@
     </row>
     <row r="440" spans="1:10" ht="18.75" customHeight="1">
       <c r="A440" s="50" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B440" s="39"/>
       <c r="C440" s="39"/>
@@ -39733,7 +39741,7 @@
     </row>
     <row r="441" spans="1:10" ht="17.25" customHeight="1">
       <c r="A441" s="41" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B441" s="42"/>
       <c r="C441" s="42"/>
@@ -39747,13 +39755,13 @@
     </row>
     <row r="442" spans="1:10" ht="14" customHeight="1">
       <c r="A442" s="47" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B442" s="29"/>
       <c r="C442" s="29"/>
       <c r="D442" s="29"/>
       <c r="E442" s="46" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F442" s="29"/>
       <c r="G442" s="29"/>
@@ -39763,13 +39771,13 @@
     </row>
     <row r="443" spans="1:10" ht="14" customHeight="1">
       <c r="A443" s="47" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B443" s="29"/>
       <c r="C443" s="29"/>
       <c r="D443" s="29"/>
       <c r="E443" s="47" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F443" s="29"/>
       <c r="G443" s="29"/>
@@ -39783,7 +39791,7 @@
       <c r="C444" s="29"/>
       <c r="D444" s="29"/>
       <c r="E444" s="47" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F444" s="29"/>
       <c r="G444" s="29"/>
@@ -39793,7 +39801,7 @@
     </row>
     <row r="445" spans="1:10" ht="14" customHeight="1">
       <c r="A445" s="47" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B445" s="29"/>
       <c r="C445" s="29"/>
@@ -39809,10 +39817,10 @@
     </row>
     <row r="446" spans="1:10" ht="14" customHeight="1">
       <c r="A446" s="30" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B446" s="47" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C446" s="29"/>
       <c r="D446" s="29"/>
@@ -39828,7 +39836,7 @@
     <row r="447" spans="1:10" ht="14" customHeight="1">
       <c r="A447" s="31"/>
       <c r="B447" s="47" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C447" s="29"/>
       <c r="D447" s="29"/>
@@ -39844,12 +39852,12 @@
     <row r="448" spans="1:10" ht="14" customHeight="1">
       <c r="A448" s="31"/>
       <c r="B448" s="47" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C448" s="29"/>
       <c r="D448" s="29"/>
       <c r="E448" s="63" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F448" s="29"/>
       <c r="G448" s="29"/>
@@ -39860,7 +39868,7 @@
     <row r="449" spans="1:10" ht="14" customHeight="1">
       <c r="A449" s="31"/>
       <c r="B449" s="47" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C449" s="29"/>
       <c r="D449" s="29"/>
@@ -39876,7 +39884,7 @@
     <row r="450" spans="1:10" ht="14.25" customHeight="1">
       <c r="A450" s="31"/>
       <c r="B450" s="47" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C450" s="29"/>
       <c r="D450" s="29"/>
@@ -39891,17 +39899,17 @@
     </row>
     <row r="451" spans="1:10" ht="17.75" customHeight="1">
       <c r="A451" s="47" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B451" s="29"/>
       <c r="C451" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E451" s="47" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F451" s="29"/>
       <c r="G451" s="29"/>
@@ -39911,13 +39919,13 @@
     </row>
     <row r="452" spans="1:10" ht="144.15" customHeight="1">
       <c r="A452" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D452" s="5">
         <v>1</v>
@@ -39933,13 +39941,13 @@
     </row>
     <row r="453" spans="1:10" ht="144.5" customHeight="1">
       <c r="A453" s="30" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C453" s="13" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D453" s="11">
         <v>36.17</v>
@@ -39956,10 +39964,10 @@
     <row r="454" spans="1:10" ht="144.5" customHeight="1">
       <c r="A454" s="31"/>
       <c r="B454" s="15" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C454" s="13" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D454" s="11">
         <v>4.79</v>
@@ -39976,13 +39984,13 @@
     <row r="455" spans="1:10" ht="144.75" customHeight="1">
       <c r="A455" s="31"/>
       <c r="B455" s="6" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D455" s="16" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E455" s="28">
         <v>3.9239999999999999</v>
@@ -39995,7 +40003,7 @@
     </row>
     <row r="456" spans="1:10" ht="24" customHeight="1">
       <c r="B456" s="67" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C456" s="68"/>
       <c r="D456" s="68"/>
@@ -40008,7 +40016,7 @@
     </row>
     <row r="457" spans="1:10" ht="24" customHeight="1">
       <c r="C457" s="67" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D457" s="68"/>
       <c r="E457" s="68"/>
@@ -40020,7 +40028,7 @@
     </row>
     <row r="458" spans="1:10" ht="72.900000000000006" customHeight="1">
       <c r="A458" s="27" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B458" s="68"/>
       <c r="C458" s="68"/>
@@ -40034,7 +40042,7 @@
     </row>
     <row r="459" spans="1:10" ht="22.5" customHeight="1">
       <c r="A459" s="25" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B459" s="68"/>
       <c r="C459" s="68"/>
@@ -40048,7 +40056,7 @@
     </row>
     <row r="460" spans="1:10" ht="101" customHeight="1">
       <c r="A460" s="27" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B460" s="68"/>
       <c r="C460" s="68"/>
@@ -40062,7 +40070,7 @@
     </row>
     <row r="461" spans="1:10" ht="151.5" customHeight="1">
       <c r="A461" s="26" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B461" s="68"/>
       <c r="C461" s="68"/>
@@ -40076,7 +40084,7 @@
     </row>
     <row r="462" spans="1:10" ht="151.5" customHeight="1">
       <c r="A462" s="26" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B462" s="68"/>
       <c r="C462" s="68"/>
@@ -40090,7 +40098,7 @@
     </row>
     <row r="463" spans="1:10" ht="87" customHeight="1">
       <c r="A463" s="26" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B463" s="68"/>
       <c r="C463" s="68"/>
@@ -40104,7 +40112,7 @@
     </row>
     <row r="464" spans="1:10" ht="22.5" customHeight="1">
       <c r="A464" s="27" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B464" s="68"/>
       <c r="C464" s="68"/>
@@ -40118,7 +40126,7 @@
     </row>
     <row r="465" spans="1:10" ht="87" customHeight="1">
       <c r="A465" s="26" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B465" s="68"/>
       <c r="C465" s="68"/>
@@ -40132,7 +40140,7 @@
     </row>
     <row r="466" spans="1:10" ht="54.75" customHeight="1">
       <c r="A466" s="26" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B466" s="68"/>
       <c r="C466" s="68"/>
@@ -40146,7 +40154,7 @@
     </row>
     <row r="467" spans="1:10" ht="54.75" customHeight="1">
       <c r="A467" s="26" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B467" s="68"/>
       <c r="C467" s="68"/>
@@ -40160,7 +40168,7 @@
     </row>
     <row r="468" spans="1:10" ht="54.75" customHeight="1">
       <c r="A468" s="26" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B468" s="68"/>
       <c r="C468" s="68"/>
@@ -40174,7 +40182,7 @@
     </row>
     <row r="469" spans="1:10" ht="119.25" customHeight="1">
       <c r="A469" s="26" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B469" s="68"/>
       <c r="C469" s="68"/>
@@ -40188,7 +40196,7 @@
     </row>
     <row r="470" spans="1:10" ht="54.75" customHeight="1">
       <c r="A470" s="26" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B470" s="68"/>
       <c r="C470" s="68"/>
@@ -40202,7 +40210,7 @@
     </row>
     <row r="471" spans="1:10" ht="54.75" customHeight="1">
       <c r="A471" s="26" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B471" s="68"/>
       <c r="C471" s="68"/>
@@ -40216,7 +40224,7 @@
     </row>
     <row r="472" spans="1:10" ht="54.75" customHeight="1">
       <c r="A472" s="26" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B472" s="68"/>
       <c r="C472" s="68"/>
@@ -40230,7 +40238,7 @@
     </row>
     <row r="473" spans="1:10" ht="87" customHeight="1">
       <c r="A473" s="26" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B473" s="68"/>
       <c r="C473" s="68"/>
@@ -40244,7 +40252,7 @@
     </row>
     <row r="474" spans="1:10" ht="54.75" customHeight="1">
       <c r="A474" s="27" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B474" s="68"/>
       <c r="C474" s="68"/>
@@ -40258,7 +40266,7 @@
     </row>
     <row r="475" spans="1:10" ht="22.5" customHeight="1">
       <c r="A475" s="36" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B475" s="68"/>
       <c r="C475" s="68"/>
@@ -40272,7 +40280,7 @@
     </row>
     <row r="476" spans="1:10" ht="119.25" customHeight="1">
       <c r="A476" s="26" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B476" s="68"/>
       <c r="C476" s="68"/>
@@ -40286,7 +40294,7 @@
     </row>
     <row r="477" spans="1:10" ht="119.25" customHeight="1">
       <c r="A477" s="26" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B477" s="68"/>
       <c r="C477" s="68"/>
@@ -40300,7 +40308,7 @@
     </row>
     <row r="478" spans="1:10" ht="119.25" customHeight="1">
       <c r="A478" s="26" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B478" s="68"/>
       <c r="C478" s="68"/>
@@ -40314,7 +40322,7 @@
     </row>
     <row r="479" spans="1:10" ht="87" customHeight="1">
       <c r="A479" s="26" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B479" s="68"/>
       <c r="C479" s="68"/>
@@ -40328,7 +40336,7 @@
     </row>
     <row r="480" spans="1:10" ht="151.5" customHeight="1">
       <c r="A480" s="26" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B480" s="68"/>
       <c r="C480" s="68"/>
@@ -40342,7 +40350,7 @@
     </row>
     <row r="481" spans="1:10" ht="54.75" customHeight="1">
       <c r="A481" s="26" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B481" s="68"/>
       <c r="C481" s="68"/>
@@ -40356,7 +40364,7 @@
     </row>
     <row r="482" spans="1:10" ht="22.5" customHeight="1">
       <c r="A482" s="36" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B482" s="68"/>
       <c r="C482" s="68"/>
@@ -40369,7 +40377,7 @@
     </row>
     <row r="483" spans="1:10" ht="119.25" customHeight="1">
       <c r="A483" s="26" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B483" s="68"/>
       <c r="C483" s="68"/>
@@ -40383,7 +40391,7 @@
     </row>
     <row r="484" spans="1:10" ht="22.5" customHeight="1">
       <c r="A484" s="25" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B484" s="68"/>
       <c r="C484" s="68"/>
@@ -40397,7 +40405,7 @@
     </row>
     <row r="485" spans="1:10" ht="87" customHeight="1">
       <c r="A485" s="26" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B485" s="68"/>
       <c r="C485" s="68"/>
@@ -40411,7 +40419,7 @@
     </row>
     <row r="486" spans="1:10" ht="54.75" customHeight="1">
       <c r="A486" s="26" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B486" s="68"/>
       <c r="C486" s="68"/>
@@ -40425,7 +40433,7 @@
     </row>
     <row r="487" spans="1:10" ht="119.25" customHeight="1">
       <c r="A487" s="26" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B487" s="68"/>
       <c r="C487" s="68"/>
@@ -40439,7 +40447,7 @@
     </row>
     <row r="488" spans="1:10" ht="87" customHeight="1">
       <c r="A488" s="26" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B488" s="68"/>
       <c r="C488" s="68"/>
@@ -40453,7 +40461,7 @@
     </row>
     <row r="489" spans="1:10" ht="119.25" customHeight="1">
       <c r="A489" s="26" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B489" s="68"/>
       <c r="C489" s="68"/>
@@ -40467,7 +40475,7 @@
     </row>
     <row r="490" spans="1:10" ht="54.75" customHeight="1">
       <c r="A490" s="26" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B490" s="68"/>
       <c r="C490" s="68"/>
@@ -40481,7 +40489,7 @@
     </row>
     <row r="491" spans="1:10" ht="22.5" customHeight="1">
       <c r="A491" s="36" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B491" s="68"/>
       <c r="C491" s="68"/>
@@ -40494,7 +40502,7 @@
     </row>
     <row r="492" spans="1:10" ht="22.5" customHeight="1">
       <c r="A492" s="27" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B492" s="68"/>
       <c r="C492" s="68"/>
@@ -40508,7 +40516,7 @@
     </row>
     <row r="493" spans="1:10" ht="119.25" customHeight="1">
       <c r="A493" s="26" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B493" s="68"/>
       <c r="C493" s="68"/>
@@ -40522,7 +40530,7 @@
     </row>
     <row r="494" spans="1:10" ht="54.75" customHeight="1">
       <c r="A494" s="26" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B494" s="68"/>
       <c r="C494" s="68"/>
@@ -40536,7 +40544,7 @@
     </row>
     <row r="495" spans="1:10" ht="54.75" customHeight="1">
       <c r="A495" s="26" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B495" s="68"/>
       <c r="C495" s="68"/>
@@ -40550,7 +40558,7 @@
     </row>
     <row r="496" spans="1:10" ht="151.5" customHeight="1">
       <c r="A496" s="26" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B496" s="68"/>
       <c r="C496" s="68"/>
@@ -40564,7 +40572,7 @@
     </row>
     <row r="497" spans="1:10" ht="151.5" customHeight="1">
       <c r="A497" s="26" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B497" s="68"/>
       <c r="C497" s="68"/>
@@ -40578,7 +40586,7 @@
     </row>
     <row r="498" spans="1:10" ht="87" customHeight="1">
       <c r="A498" s="26" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B498" s="68"/>
       <c r="C498" s="68"/>
@@ -40592,7 +40600,7 @@
     </row>
     <row r="499" spans="1:10" ht="54.75" customHeight="1">
       <c r="A499" s="27" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B499" s="68"/>
       <c r="C499" s="68"/>
@@ -40606,7 +40614,7 @@
     </row>
     <row r="500" spans="1:10" ht="54.75" customHeight="1">
       <c r="A500" s="26" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B500" s="68"/>
       <c r="C500" s="68"/>
@@ -40620,7 +40628,7 @@
     </row>
     <row r="501" spans="1:10" ht="22.5" customHeight="1">
       <c r="B501" s="26" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C501" s="68"/>
       <c r="D501" s="68"/>
@@ -40633,7 +40641,7 @@
     </row>
     <row r="502" spans="1:10" ht="87" customHeight="1">
       <c r="A502" s="26" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B502" s="68"/>
       <c r="C502" s="68"/>
@@ -40647,7 +40655,7 @@
     </row>
     <row r="503" spans="1:10" ht="54.75" customHeight="1">
       <c r="A503" s="26" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B503" s="68"/>
       <c r="C503" s="68"/>
@@ -40661,7 +40669,7 @@
     </row>
     <row r="504" spans="1:10" ht="54.75" customHeight="1">
       <c r="A504" s="26" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B504" s="68"/>
       <c r="C504" s="68"/>
@@ -40675,7 +40683,7 @@
     </row>
     <row r="505" spans="1:10" ht="119.25" customHeight="1">
       <c r="A505" s="26" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B505" s="68"/>
       <c r="C505" s="68"/>
@@ -40689,7 +40697,7 @@
     </row>
     <row r="506" spans="1:10" ht="87" customHeight="1">
       <c r="A506" s="26" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B506" s="68"/>
       <c r="C506" s="68"/>
@@ -40703,7 +40711,7 @@
     </row>
     <row r="507" spans="1:10" ht="216" customHeight="1">
       <c r="A507" s="26" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B507" s="68"/>
       <c r="C507" s="68"/>
@@ -40717,7 +40725,7 @@
     </row>
     <row r="508" spans="1:10" ht="119.25" customHeight="1">
       <c r="A508" s="26" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B508" s="68"/>
       <c r="C508" s="68"/>
@@ -40731,7 +40739,7 @@
     </row>
     <row r="509" spans="1:10" ht="119.25" customHeight="1">
       <c r="A509" s="26" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B509" s="68"/>
       <c r="C509" s="68"/>
@@ -40745,7 +40753,7 @@
     </row>
     <row r="510" spans="1:10" ht="87" customHeight="1">
       <c r="A510" s="26" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B510" s="68"/>
       <c r="C510" s="68"/>
@@ -40759,7 +40767,7 @@
     </row>
     <row r="511" spans="1:10" ht="151.5" customHeight="1">
       <c r="A511" s="26" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B511" s="68"/>
       <c r="C511" s="68"/>
@@ -40773,7 +40781,7 @@
     </row>
     <row r="512" spans="1:10" ht="87" customHeight="1">
       <c r="A512" s="26" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B512" s="68"/>
       <c r="C512" s="68"/>
@@ -40787,7 +40795,7 @@
     </row>
     <row r="513" spans="1:10" ht="22.5" customHeight="1">
       <c r="A513" s="25" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B513" s="68"/>
       <c r="C513" s="68"/>
@@ -40801,7 +40809,7 @@
     </row>
     <row r="514" spans="1:10" ht="54.75" customHeight="1">
       <c r="A514" s="26" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B514" s="68"/>
       <c r="C514" s="68"/>
@@ -40815,7 +40823,7 @@
     </row>
     <row r="515" spans="1:10" ht="54.75" customHeight="1">
       <c r="A515" s="27" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B515" s="68"/>
       <c r="C515" s="68"/>
@@ -40829,7 +40837,7 @@
     </row>
     <row r="516" spans="1:10" ht="151.5" customHeight="1">
       <c r="A516" s="26" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B516" s="68"/>
       <c r="C516" s="68"/>
@@ -40843,7 +40851,7 @@
     </row>
     <row r="517" spans="1:10" ht="22.5" customHeight="1">
       <c r="A517" s="25" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B517" s="68"/>
       <c r="C517" s="68"/>
@@ -40857,7 +40865,7 @@
     </row>
     <row r="518" spans="1:10" ht="54.75" customHeight="1">
       <c r="A518" s="26" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B518" s="68"/>
       <c r="C518" s="68"/>
@@ -40871,7 +40879,7 @@
     </row>
     <row r="519" spans="1:10" ht="87" customHeight="1">
       <c r="A519" s="26" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B519" s="68"/>
       <c r="C519" s="68"/>
@@ -40885,7 +40893,7 @@
     </row>
     <row r="520" spans="1:10" ht="87" customHeight="1">
       <c r="A520" s="26" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B520" s="68"/>
       <c r="C520" s="68"/>
@@ -40899,7 +40907,7 @@
     </row>
     <row r="521" spans="1:10" ht="119.25" customHeight="1">
       <c r="A521" s="26" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B521" s="68"/>
       <c r="C521" s="68"/>
@@ -40913,7 +40921,7 @@
     </row>
     <row r="522" spans="1:10" ht="87" customHeight="1">
       <c r="A522" s="26" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B522" s="68"/>
       <c r="C522" s="68"/>
@@ -40927,7 +40935,7 @@
     </row>
     <row r="523" spans="1:10" ht="87" customHeight="1">
       <c r="A523" s="27" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B523" s="68"/>
       <c r="C523" s="68"/>
@@ -40941,7 +40949,7 @@
     </row>
     <row r="524" spans="1:10" ht="183.75" customHeight="1">
       <c r="A524" s="26" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B524" s="68"/>
       <c r="C524" s="68"/>
@@ -40955,7 +40963,7 @@
     </row>
     <row r="525" spans="1:10" ht="119.25" customHeight="1">
       <c r="A525" s="26" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B525" s="68"/>
       <c r="C525" s="68"/>
@@ -40969,7 +40977,7 @@
     </row>
     <row r="526" spans="1:10" ht="54.75" customHeight="1">
       <c r="A526" s="26" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B526" s="68"/>
       <c r="C526" s="68"/>
@@ -40983,7 +40991,7 @@
     </row>
     <row r="527" spans="1:10" ht="54.75" customHeight="1">
       <c r="A527" s="26" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B527" s="68"/>
       <c r="C527" s="68"/>
@@ -40997,7 +41005,7 @@
     </row>
     <row r="528" spans="1:10" ht="87" customHeight="1">
       <c r="A528" s="26" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B528" s="68"/>
       <c r="C528" s="68"/>
@@ -41011,7 +41019,7 @@
     </row>
     <row r="529" spans="1:10" ht="151.5" customHeight="1">
       <c r="A529" s="26" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B529" s="68"/>
       <c r="C529" s="68"/>
@@ -41025,7 +41033,7 @@
     </row>
     <row r="530" spans="1:10" ht="54.75" customHeight="1">
       <c r="A530" s="27" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B530" s="68"/>
       <c r="C530" s="68"/>
@@ -41039,7 +41047,7 @@
     </row>
     <row r="531" spans="1:10" ht="54.75" customHeight="1">
       <c r="A531" s="26" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B531" s="68"/>
       <c r="C531" s="68"/>
@@ -41053,7 +41061,7 @@
     </row>
     <row r="532" spans="1:10" ht="151.5" customHeight="1">
       <c r="A532" s="26" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B532" s="68"/>
       <c r="C532" s="68"/>
@@ -41067,7 +41075,7 @@
     </row>
     <row r="533" spans="1:10" ht="119.25" customHeight="1">
       <c r="A533" s="26" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B533" s="68"/>
       <c r="C533" s="68"/>
@@ -41081,7 +41089,7 @@
     </row>
     <row r="534" spans="1:10" ht="312.75" customHeight="1">
       <c r="A534" s="26" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B534" s="68"/>
       <c r="C534" s="68"/>
@@ -41095,7 +41103,7 @@
     </row>
     <row r="535" spans="1:10" ht="57" customHeight="1">
       <c r="A535" s="27" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B535" s="68"/>
       <c r="C535" s="68"/>
@@ -41121,7 +41129,7 @@
     </row>
     <row r="537" spans="1:10" ht="87" customHeight="1">
       <c r="A537" s="26" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B537" s="68"/>
       <c r="C537" s="68"/>
@@ -41135,7 +41143,7 @@
     </row>
     <row r="538" spans="1:10" ht="119.25" customHeight="1">
       <c r="A538" s="26" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B538" s="68"/>
       <c r="C538" s="68"/>
@@ -41149,7 +41157,7 @@
     </row>
     <row r="539" spans="1:10" ht="87" customHeight="1">
       <c r="A539" s="26" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B539" s="68"/>
       <c r="C539" s="68"/>
@@ -41163,7 +41171,7 @@
     </row>
     <row r="540" spans="1:10" ht="54.75" customHeight="1">
       <c r="A540" s="26" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B540" s="68"/>
       <c r="C540" s="68"/>
@@ -41177,7 +41185,7 @@
     </row>
     <row r="541" spans="1:10" ht="119.25" customHeight="1">
       <c r="A541" s="26" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B541" s="68"/>
       <c r="C541" s="68"/>
@@ -41191,7 +41199,7 @@
     </row>
     <row r="542" spans="1:10" ht="54.75" customHeight="1">
       <c r="A542" s="27" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B542" s="68"/>
       <c r="C542" s="68"/>
@@ -41205,7 +41213,7 @@
     </row>
     <row r="543" spans="1:10" ht="54.75" customHeight="1">
       <c r="A543" s="26" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B543" s="68"/>
       <c r="C543" s="68"/>
@@ -41219,7 +41227,7 @@
     </row>
     <row r="544" spans="1:10" ht="285.39999999999998" customHeight="1">
       <c r="A544" s="26" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B544" s="68"/>
       <c r="C544" s="68"/>
@@ -41265,7 +41273,7 @@
     </row>
     <row r="546" spans="1:10" ht="87" customHeight="1">
       <c r="A546" s="26" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B546" s="68"/>
       <c r="C546" s="68"/>
@@ -41279,7 +41287,7 @@
     </row>
     <row r="547" spans="1:10" ht="22.5" customHeight="1">
       <c r="B547" s="27" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C547" s="68"/>
       <c r="D547" s="68"/>
@@ -41292,7 +41300,7 @@
     </row>
     <row r="548" spans="1:10" ht="119.25" customHeight="1">
       <c r="A548" s="26" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B548" s="68"/>
       <c r="C548" s="68"/>
@@ -41306,7 +41314,7 @@
     </row>
     <row r="549" spans="1:10" ht="87" customHeight="1">
       <c r="A549" s="26" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B549" s="68"/>
       <c r="C549" s="68"/>
@@ -41320,7 +41328,7 @@
     </row>
     <row r="550" spans="1:10" ht="22.5" customHeight="1">
       <c r="A550" s="25" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B550" s="68"/>
       <c r="C550" s="68"/>
@@ -41334,7 +41342,7 @@
     </row>
     <row r="551" spans="1:10" ht="119.25" customHeight="1">
       <c r="A551" s="26" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B551" s="68"/>
       <c r="C551" s="68"/>
@@ -41348,7 +41356,7 @@
     </row>
     <row r="552" spans="1:10" ht="87" customHeight="1">
       <c r="A552" s="26" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B552" s="68"/>
       <c r="C552" s="68"/>
@@ -41362,7 +41370,7 @@
     </row>
     <row r="553" spans="1:10" ht="54.75" customHeight="1">
       <c r="A553" s="26" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B553" s="68"/>
       <c r="C553" s="68"/>
@@ -41376,7 +41384,7 @@
     </row>
     <row r="554" spans="1:10" ht="183.75" customHeight="1">
       <c r="A554" s="26" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B554" s="68"/>
       <c r="C554" s="68"/>
@@ -41390,7 +41398,7 @@
     </row>
     <row r="555" spans="1:10" ht="22.5" customHeight="1">
       <c r="A555" s="36" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B555" s="68"/>
       <c r="C555" s="68"/>
@@ -41403,7 +41411,7 @@
     </row>
     <row r="556" spans="1:10" ht="22.5" customHeight="1">
       <c r="A556" s="27" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B556" s="68"/>
       <c r="C556" s="68"/>
@@ -41417,7 +41425,7 @@
     </row>
     <row r="557" spans="1:10" ht="22.5" customHeight="1">
       <c r="A557" s="25" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B557" s="68"/>
       <c r="C557" s="68"/>
@@ -41431,7 +41439,7 @@
     </row>
     <row r="558" spans="1:10" ht="54.75" customHeight="1">
       <c r="A558" s="26" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B558" s="68"/>
       <c r="C558" s="68"/>
@@ -41445,7 +41453,7 @@
     </row>
     <row r="559" spans="1:10" ht="22.5" customHeight="1">
       <c r="A559" s="25" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B559" s="68"/>
       <c r="C559" s="68"/>
@@ -41459,7 +41467,7 @@
     </row>
     <row r="560" spans="1:10" ht="87" customHeight="1">
       <c r="A560" s="26" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B560" s="68"/>
       <c r="C560" s="68"/>
@@ -41473,7 +41481,7 @@
     </row>
     <row r="561" spans="1:10" ht="54.75" customHeight="1">
       <c r="A561" s="69" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B561" s="68"/>
       <c r="C561" s="68"/>
@@ -41487,7 +41495,7 @@
     </row>
     <row r="562" spans="1:10" ht="54.75" customHeight="1">
       <c r="A562" s="26" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B562" s="68"/>
       <c r="C562" s="68"/>
@@ -41501,7 +41509,7 @@
     </row>
     <row r="563" spans="1:10" ht="22.5" customHeight="1">
       <c r="A563" s="25" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B563" s="68"/>
       <c r="C563" s="68"/>
@@ -41515,7 +41523,7 @@
     </row>
     <row r="564" spans="1:10" ht="54.75" customHeight="1">
       <c r="A564" s="26" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B564" s="68"/>
       <c r="C564" s="68"/>
@@ -41529,7 +41537,7 @@
     </row>
     <row r="565" spans="1:10" ht="54.75" customHeight="1">
       <c r="A565" s="27" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B565" s="68"/>
       <c r="C565" s="68"/>
@@ -41545,7 +41553,7 @@
       <c r="A566" s="68"/>
       <c r="B566" s="68"/>
       <c r="C566" s="67" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D566" s="68"/>
       <c r="E566" s="68"/>
@@ -41557,7 +41565,7 @@
     </row>
     <row r="567" spans="1:10" ht="22.5" customHeight="1">
       <c r="A567" s="25" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B567" s="68"/>
       <c r="C567" s="68"/>
@@ -41571,7 +41579,7 @@
     </row>
     <row r="568" spans="1:10" ht="22.5" customHeight="1">
       <c r="A568" s="26" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B568" s="68"/>
       <c r="C568" s="68"/>
@@ -41585,7 +41593,7 @@
     </row>
     <row r="569" spans="1:10" ht="151.5" customHeight="1">
       <c r="A569" s="26" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B569" s="68"/>
       <c r="C569" s="68"/>
@@ -41599,7 +41607,7 @@
     </row>
     <row r="570" spans="1:10" ht="54.75" customHeight="1">
       <c r="A570" s="26" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B570" s="68"/>
       <c r="C570" s="68"/>
@@ -41613,7 +41621,7 @@
     </row>
     <row r="571" spans="1:10" ht="151.5" customHeight="1">
       <c r="A571" s="26" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B571" s="68"/>
       <c r="C571" s="68"/>
@@ -41627,7 +41635,7 @@
     </row>
     <row r="572" spans="1:10" ht="151.5" customHeight="1">
       <c r="A572" s="26" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B572" s="68"/>
       <c r="C572" s="68"/>
@@ -41641,7 +41649,7 @@
     </row>
     <row r="573" spans="1:10" ht="54.75" customHeight="1">
       <c r="A573" s="26" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B573" s="68"/>
       <c r="C573" s="68"/>
@@ -41655,7 +41663,7 @@
     </row>
     <row r="574" spans="1:10" ht="54.75" customHeight="1">
       <c r="A574" s="27" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B574" s="68"/>
       <c r="C574" s="68"/>
@@ -41669,7 +41677,7 @@
     </row>
     <row r="575" spans="1:10" ht="54.75" customHeight="1">
       <c r="A575" s="26" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B575" s="68"/>
       <c r="C575" s="68"/>
@@ -41683,7 +41691,7 @@
     </row>
     <row r="576" spans="1:10" ht="54.75" customHeight="1">
       <c r="A576" s="26" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B576" s="68"/>
       <c r="C576" s="68"/>
@@ -41697,7 +41705,7 @@
     </row>
     <row r="577" spans="1:10" ht="54.75" customHeight="1">
       <c r="A577" s="26" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B577" s="68"/>
       <c r="C577" s="68"/>
@@ -41711,7 +41719,7 @@
     </row>
     <row r="578" spans="1:10" ht="183.75" customHeight="1">
       <c r="A578" s="26" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B578" s="68"/>
       <c r="C578" s="68"/>
@@ -41725,7 +41733,7 @@
     </row>
     <row r="579" spans="1:10" ht="22.5" customHeight="1">
       <c r="A579" s="25" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B579" s="68"/>
       <c r="C579" s="68"/>
@@ -41739,7 +41747,7 @@
     </row>
     <row r="580" spans="1:10" ht="54.75" customHeight="1">
       <c r="A580" s="69" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B580" s="68"/>
       <c r="C580" s="68"/>
@@ -41753,7 +41761,7 @@
     </row>
     <row r="581" spans="1:10" ht="87" customHeight="1">
       <c r="A581" s="26" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B581" s="68"/>
       <c r="C581" s="68"/>
@@ -41767,7 +41775,7 @@
     </row>
     <row r="582" spans="1:10" ht="54.75" customHeight="1">
       <c r="A582" s="26" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B582" s="68"/>
       <c r="C582" s="68"/>
@@ -41781,7 +41789,7 @@
     </row>
     <row r="583" spans="1:10" ht="54.75" customHeight="1">
       <c r="A583" s="26" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B583" s="68"/>
       <c r="C583" s="68"/>
@@ -41795,7 +41803,7 @@
     </row>
     <row r="584" spans="1:10" ht="54.75" customHeight="1">
       <c r="A584" s="27" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B584" s="68"/>
       <c r="C584" s="68"/>
@@ -41809,7 +41817,7 @@
     </row>
     <row r="585" spans="1:10" ht="87" customHeight="1">
       <c r="A585" s="26" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B585" s="68"/>
       <c r="C585" s="68"/>
@@ -41823,7 +41831,7 @@
     </row>
     <row r="586" spans="1:10" ht="22.5" customHeight="1">
       <c r="A586" s="25" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B586" s="68"/>
       <c r="C586" s="68"/>
@@ -41837,7 +41845,7 @@
     </row>
     <row r="587" spans="1:10" ht="22.5" customHeight="1">
       <c r="A587" s="25" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B587" s="68"/>
       <c r="C587" s="68"/>
@@ -41851,7 +41859,7 @@
     </row>
     <row r="588" spans="1:10" ht="22.5" customHeight="1">
       <c r="A588" s="25" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B588" s="68"/>
       <c r="C588" s="68"/>
@@ -41865,7 +41873,7 @@
     </row>
     <row r="589" spans="1:10" ht="22.5" customHeight="1">
       <c r="A589" s="25" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B589" s="68"/>
       <c r="C589" s="68"/>
@@ -41879,7 +41887,7 @@
     </row>
     <row r="590" spans="1:10" ht="151.5" customHeight="1">
       <c r="A590" s="26" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B590" s="68"/>
       <c r="C590" s="68"/>
@@ -41893,7 +41901,7 @@
     </row>
     <row r="591" spans="1:10" ht="54.75" customHeight="1">
       <c r="A591" s="26" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B591" s="68"/>
       <c r="C591" s="68"/>
@@ -41907,7 +41915,7 @@
     </row>
     <row r="592" spans="1:10" ht="87" customHeight="1">
       <c r="A592" s="26" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B592" s="68"/>
       <c r="C592" s="68"/>
@@ -41921,7 +41929,7 @@
     </row>
     <row r="593" spans="1:10" ht="54.75" customHeight="1">
       <c r="A593" s="26" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B593" s="68"/>
       <c r="C593" s="68"/>
@@ -41935,7 +41943,7 @@
     </row>
     <row r="594" spans="1:10" ht="54.75" customHeight="1">
       <c r="A594" s="69" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B594" s="68"/>
       <c r="C594" s="68"/>
@@ -41948,7 +41956,7 @@
     </row>
     <row r="595" spans="1:10" ht="54.75" customHeight="1">
       <c r="A595" s="26" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B595" s="68"/>
       <c r="C595" s="68"/>
@@ -41962,7 +41970,7 @@
     </row>
     <row r="596" spans="1:10" ht="22.5" customHeight="1">
       <c r="A596" s="36" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B596" s="68"/>
       <c r="C596" s="68"/>
@@ -41975,7 +41983,7 @@
     </row>
     <row r="597" spans="1:10" ht="22.5" customHeight="1">
       <c r="A597" s="27" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B597" s="68"/>
       <c r="C597" s="68"/>
@@ -41989,7 +41997,7 @@
     </row>
     <row r="598" spans="1:10" ht="54.75" customHeight="1">
       <c r="A598" s="25" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B598" s="68"/>
       <c r="C598" s="68"/>
@@ -42002,7 +42010,7 @@
     </row>
     <row r="599" spans="1:10" ht="87" customHeight="1">
       <c r="A599" s="26" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B599" s="68"/>
       <c r="C599" s="68"/>
@@ -42016,7 +42024,7 @@
     </row>
     <row r="600" spans="1:10" ht="54.75" customHeight="1">
       <c r="A600" s="26" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B600" s="68"/>
       <c r="C600" s="68"/>
@@ -42030,7 +42038,7 @@
     </row>
     <row r="601" spans="1:10" ht="119.25" customHeight="1">
       <c r="A601" s="26" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B601" s="68"/>
       <c r="C601" s="68"/>
@@ -42044,7 +42052,7 @@
     </row>
     <row r="602" spans="1:10" ht="151.5" customHeight="1">
       <c r="A602" s="26" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B602" s="68"/>
       <c r="C602" s="68"/>
@@ -42058,7 +42066,7 @@
     </row>
     <row r="603" spans="1:10" ht="183.75" customHeight="1">
       <c r="A603" s="26" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B603" s="68"/>
       <c r="C603" s="68"/>
@@ -42072,7 +42080,7 @@
     </row>
     <row r="604" spans="1:10" ht="22.5" customHeight="1">
       <c r="A604" s="36" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B604" s="68"/>
       <c r="C604" s="68"/>
@@ -42086,7 +42094,7 @@
     </row>
     <row r="605" spans="1:10" ht="54.75" customHeight="1">
       <c r="A605" s="26" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B605" s="68"/>
       <c r="C605" s="68"/>
@@ -42100,7 +42108,7 @@
     </row>
     <row r="606" spans="1:10" ht="22.5" customHeight="1">
       <c r="A606" s="25" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B606" s="68"/>
       <c r="C606" s="68"/>
@@ -42114,7 +42122,7 @@
     </row>
     <row r="607" spans="1:10" ht="54.75" customHeight="1">
       <c r="A607" s="26" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B607" s="68"/>
       <c r="C607" s="68"/>
@@ -42128,7 +42136,7 @@
     </row>
     <row r="608" spans="1:10" ht="22.5" customHeight="1">
       <c r="A608" s="25" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B608" s="68"/>
       <c r="C608" s="68"/>
@@ -42142,7 +42150,7 @@
     </row>
     <row r="609" spans="1:10" ht="54.75" customHeight="1">
       <c r="A609" s="26" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B609" s="68"/>
       <c r="C609" s="68"/>
@@ -42156,7 +42164,7 @@
     </row>
     <row r="610" spans="1:10" ht="22.5" customHeight="1">
       <c r="A610" s="25" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B610" s="68"/>
       <c r="C610" s="68"/>
@@ -42170,7 +42178,7 @@
     </row>
     <row r="611" spans="1:10" ht="183.75" customHeight="1">
       <c r="A611" s="26" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B611" s="68"/>
       <c r="C611" s="68"/>
@@ -42184,7 +42192,7 @@
     </row>
     <row r="612" spans="1:10" ht="54.75" customHeight="1">
       <c r="A612" s="26" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B612" s="68"/>
       <c r="C612" s="68"/>
@@ -42198,7 +42206,7 @@
     </row>
     <row r="613" spans="1:10" ht="54.75" customHeight="1">
       <c r="A613" s="26" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B613" s="68"/>
       <c r="C613" s="68"/>
@@ -42212,7 +42220,7 @@
     </row>
     <row r="614" spans="1:10" ht="22.5" customHeight="1">
       <c r="A614" s="25" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B614" s="68"/>
       <c r="C614" s="68"/>
@@ -42226,7 +42234,7 @@
     </row>
     <row r="615" spans="1:10" ht="54.75" customHeight="1">
       <c r="A615" s="26" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B615" s="68"/>
       <c r="C615" s="68"/>
@@ -42240,7 +42248,7 @@
     </row>
     <row r="616" spans="1:10" ht="54.75" customHeight="1">
       <c r="A616" s="27" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B616" s="68"/>
       <c r="C616" s="68"/>
@@ -42254,7 +42262,7 @@
     </row>
     <row r="617" spans="1:10" ht="54.75" customHeight="1">
       <c r="A617" s="26" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B617" s="68"/>
       <c r="C617" s="68"/>
@@ -42268,7 +42276,7 @@
     </row>
     <row r="618" spans="1:10" ht="54.75" customHeight="1">
       <c r="A618" s="26" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B618" s="68"/>
       <c r="C618" s="68"/>
@@ -42282,7 +42290,7 @@
     </row>
     <row r="619" spans="1:10" ht="87" customHeight="1">
       <c r="A619" s="26" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B619" s="68"/>
       <c r="C619" s="68"/>
@@ -42296,7 +42304,7 @@
     </row>
     <row r="620" spans="1:10" ht="54.75" customHeight="1">
       <c r="A620" s="26" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B620" s="68"/>
       <c r="C620" s="68"/>
@@ -42310,7 +42318,7 @@
     </row>
     <row r="621" spans="1:10" ht="87" customHeight="1">
       <c r="A621" s="26" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B621" s="68"/>
       <c r="C621" s="68"/>
@@ -42324,7 +42332,7 @@
     </row>
     <row r="622" spans="1:10" ht="87" customHeight="1">
       <c r="A622" s="26" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B622" s="68"/>
       <c r="C622" s="68"/>
@@ -42338,7 +42346,7 @@
     </row>
     <row r="623" spans="1:10" ht="54.75" customHeight="1">
       <c r="A623" s="26" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B623" s="68"/>
       <c r="C623" s="68"/>
@@ -42352,7 +42360,7 @@
     </row>
     <row r="624" spans="1:10" ht="87" customHeight="1">
       <c r="A624" s="26" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B624" s="68"/>
       <c r="C624" s="68"/>
@@ -42366,7 +42374,7 @@
     </row>
     <row r="625" spans="1:10" ht="54.75" customHeight="1">
       <c r="A625" s="26" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B625" s="68"/>
       <c r="C625" s="68"/>
@@ -42380,7 +42388,7 @@
     </row>
     <row r="626" spans="1:10" ht="54.75" customHeight="1">
       <c r="A626" s="27" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B626" s="68"/>
       <c r="C626" s="68"/>
@@ -42394,7 +42402,7 @@
     </row>
     <row r="627" spans="1:10" ht="87" customHeight="1">
       <c r="A627" s="26" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B627" s="68"/>
       <c r="C627" s="68"/>
@@ -42408,7 +42416,7 @@
     </row>
     <row r="628" spans="1:10" ht="119.25" customHeight="1">
       <c r="A628" s="26" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B628" s="68"/>
       <c r="C628" s="68"/>
@@ -42422,7 +42430,7 @@
     </row>
     <row r="629" spans="1:10" ht="54.75" customHeight="1">
       <c r="A629" s="26" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B629" s="68"/>
       <c r="C629" s="68"/>
@@ -42436,7 +42444,7 @@
     </row>
     <row r="630" spans="1:10" ht="54.75" customHeight="1">
       <c r="A630" s="26" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B630" s="68"/>
       <c r="C630" s="68"/>
@@ -42450,7 +42458,7 @@
     </row>
     <row r="631" spans="1:10" ht="54.75" customHeight="1">
       <c r="A631" s="26" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B631" s="68"/>
       <c r="C631" s="68"/>
@@ -42464,7 +42472,7 @@
     </row>
     <row r="632" spans="1:10" ht="22.5" customHeight="1">
       <c r="A632" s="25" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B632" s="68"/>
       <c r="C632" s="68"/>
@@ -42478,7 +42486,7 @@
     </row>
     <row r="633" spans="1:10" ht="22.5" customHeight="1">
       <c r="A633" s="25" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B633" s="68"/>
       <c r="C633" s="68"/>
@@ -42492,7 +42500,7 @@
     </row>
     <row r="634" spans="1:10" ht="87" customHeight="1">
       <c r="A634" s="26" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B634" s="68"/>
       <c r="C634" s="68"/>
@@ -42506,7 +42514,7 @@
     </row>
     <row r="635" spans="1:10" ht="54.75" customHeight="1">
       <c r="A635" s="26" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B635" s="68"/>
       <c r="C635" s="68"/>
@@ -42520,7 +42528,7 @@
     </row>
     <row r="636" spans="1:10" ht="54.75" customHeight="1">
       <c r="A636" s="26" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B636" s="68"/>
       <c r="C636" s="68"/>
@@ -42534,7 +42542,7 @@
     </row>
     <row r="637" spans="1:10" ht="52.5" customHeight="1">
       <c r="A637" s="27" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B637" s="68"/>
       <c r="C637" s="68"/>
@@ -42548,7 +42556,7 @@
     </row>
     <row r="638" spans="1:10" ht="54.75" customHeight="1">
       <c r="A638" s="26" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B638" s="68"/>
       <c r="C638" s="68"/>
@@ -42562,7 +42570,7 @@
     </row>
     <row r="639" spans="1:10" ht="87" customHeight="1">
       <c r="A639" s="26" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B639" s="68"/>
       <c r="C639" s="68"/>
@@ -42576,7 +42584,7 @@
     </row>
     <row r="640" spans="1:10" ht="87" customHeight="1">
       <c r="A640" s="26" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B640" s="68"/>
       <c r="C640" s="68"/>
@@ -42590,7 +42598,7 @@
     </row>
     <row r="641" spans="1:10" ht="119.25" customHeight="1">
       <c r="A641" s="26" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B641" s="68"/>
       <c r="C641" s="68"/>
@@ -42604,7 +42612,7 @@
     </row>
     <row r="642" spans="1:10" ht="216" customHeight="1">
       <c r="A642" s="26" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B642" s="68"/>
       <c r="C642" s="68"/>
@@ -42618,7 +42626,7 @@
     </row>
     <row r="643" spans="1:10" ht="22.5" customHeight="1">
       <c r="A643" s="25" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B643" s="68"/>
       <c r="C643" s="68"/>
@@ -42632,7 +42640,7 @@
     </row>
     <row r="644" spans="1:10" ht="22.5" customHeight="1">
       <c r="A644" s="25" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B644" s="68"/>
       <c r="C644" s="68"/>
@@ -42646,7 +42654,7 @@
     </row>
     <row r="645" spans="1:10" ht="54.75" customHeight="1">
       <c r="A645" s="26" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B645" s="68"/>
       <c r="C645" s="68"/>
@@ -42660,7 +42668,7 @@
     </row>
     <row r="646" spans="1:10" ht="22.5" customHeight="1">
       <c r="A646" s="36" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B646" s="68"/>
       <c r="C646" s="68"/>
@@ -42673,7 +42681,7 @@
     </row>
     <row r="647" spans="1:10" ht="22.5" customHeight="1">
       <c r="A647" s="27" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B647" s="68"/>
       <c r="C647" s="68"/>
@@ -42687,7 +42695,7 @@
     </row>
     <row r="648" spans="1:10" ht="54.75" customHeight="1">
       <c r="A648" s="26" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B648" s="68"/>
       <c r="C648" s="68"/>
@@ -42701,7 +42709,7 @@
     </row>
     <row r="649" spans="1:10" ht="54.75" customHeight="1">
       <c r="A649" s="26" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B649" s="68"/>
       <c r="C649" s="68"/>
@@ -42715,7 +42723,7 @@
     </row>
     <row r="650" spans="1:10" ht="87" customHeight="1">
       <c r="A650" s="26" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B650" s="68"/>
       <c r="C650" s="68"/>
@@ -42729,7 +42737,7 @@
     </row>
     <row r="651" spans="1:10" ht="22.5" customHeight="1">
       <c r="A651" s="25" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B651" s="68"/>
       <c r="C651" s="68"/>
@@ -42743,7 +42751,7 @@
     </row>
     <row r="652" spans="1:10" ht="119.25" customHeight="1">
       <c r="A652" s="26" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B652" s="68"/>
       <c r="C652" s="68"/>
@@ -42757,7 +42765,7 @@
     </row>
     <row r="653" spans="1:10" ht="216" customHeight="1">
       <c r="A653" s="26" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B653" s="68"/>
       <c r="C653" s="68"/>
@@ -42771,7 +42779,7 @@
     </row>
     <row r="654" spans="1:10" ht="119.25" customHeight="1">
       <c r="A654" s="27" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B654" s="68"/>
       <c r="C654" s="68"/>
@@ -42785,7 +42793,7 @@
     </row>
     <row r="655" spans="1:10" ht="87" customHeight="1">
       <c r="A655" s="26" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B655" s="68"/>
       <c r="C655" s="68"/>
@@ -42799,7 +42807,7 @@
     </row>
     <row r="656" spans="1:10" ht="151.5" customHeight="1">
       <c r="A656" s="26" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B656" s="68"/>
       <c r="C656" s="68"/>
@@ -42813,7 +42821,7 @@
     </row>
     <row r="657" spans="1:10" ht="22.5" customHeight="1">
       <c r="A657" s="25" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B657" s="68"/>
       <c r="C657" s="68"/>
@@ -42827,7 +42835,7 @@
     </row>
     <row r="658" spans="1:10" ht="119.25" customHeight="1">
       <c r="A658" s="26" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B658" s="68"/>
       <c r="C658" s="68"/>
@@ -42841,7 +42849,7 @@
     </row>
     <row r="659" spans="1:10" ht="54.75" customHeight="1">
       <c r="A659" s="26" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B659" s="68"/>
       <c r="C659" s="68"/>
@@ -42855,7 +42863,7 @@
     </row>
     <row r="660" spans="1:10" ht="248.25" customHeight="1">
       <c r="A660" s="26" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B660" s="68"/>
       <c r="C660" s="68"/>
@@ -42869,7 +42877,7 @@
     </row>
     <row r="661" spans="1:10" ht="22.5" customHeight="1">
       <c r="A661" s="36" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B661" s="68"/>
       <c r="C661" s="68"/>
@@ -44123,7 +44131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -44136,7 +44144,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1" ht="19.5" customHeight="1">
       <c r="B1" s="70" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
@@ -44151,13 +44159,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="22" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -44172,10 +44180,10 @@
     <row r="3" spans="1:12">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -44190,10 +44198,10 @@
     <row r="4" spans="1:12">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -44208,10 +44216,10 @@
     <row r="5" spans="1:12">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -44225,13 +44233,13 @@
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -44246,10 +44254,10 @@
     <row r="7" spans="1:12">
       <c r="A7" s="22"/>
       <c r="B7" s="22" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -44264,10 +44272,10 @@
     <row r="8" spans="1:12" ht="28">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -44281,41 +44289,41 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>1145</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>1148</v>
-      </c>
       <c r="C9" s="22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>1138</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="J9" s="22" t="s">
         <v>1139</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>1140</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>1141</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>1142</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -44328,30 +44336,30 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="19" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="19" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="19" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
